--- a/lib/files/2018-1-Atualizada.xlsx
+++ b/lib/files/2018-1-Atualizada.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3080" uniqueCount="175">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3182" uniqueCount="205">
   <si>
     <t xml:space="preserve">COD_DISCIPLINA</t>
   </si>
@@ -545,16 +545,107 @@
   </si>
   <si>
     <t xml:space="preserve">INTRODUÇÃO À GEOMETRIA ANALÍTICA E ÁLGEBRA LINEAR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MA11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NÚMEROS E FUNÇÕES REAIS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">43P</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MA12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MATEMÁTICA DISCRETA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MA21</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19:00:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22:00:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">44P</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MA22</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FUNDAMENTOS DE CÁLCULO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MA24</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TRABALHO DE CONCLUSÃO DE CURSO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EMA701</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ÁLGEBRA LINEAR APLICADA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">42P</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EMA702</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ÁLGEBRA LINEAR AVANÇADA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EMA703</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ÁLGEBRA E MÓDULOS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EMA706</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ANÁLISE EM RN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EMA711</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EQUAÇÕES DIFERENCIAIS PARCIAIS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EMA728</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MEDIDA E INTEGRAÇÃO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EMA761</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OTIMIZAÇÃO I</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EMA765</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TEORIA DE DIST. E ANÁLISE DE FOURIER</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="General"/>
+    <numFmt numFmtId="165" formatCode="HH:MM:SS"/>
   </numFmts>
-  <fonts count="16">
+  <fonts count="20">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -664,6 +755,34 @@
       <family val="2"/>
       <charset val="1"/>
     </font>
+    <font>
+      <b val="true"/>
+      <sz val="8"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <sz val="8"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
   </fonts>
   <fills count="11">
     <fill>
@@ -727,7 +846,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="13">
     <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
@@ -770,6 +889,113 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="medium">
+        <color rgb="FF4C4C4C"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF4C4C4C"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF4C4C4C"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="medium">
+        <color rgb="FF4C4C4C"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="thin">
+        <color rgb="FF4C4C4C"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF4C4C4C"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="thin">
+        <color rgb="FF4C4C4C"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF4C4C4C"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="thin">
+        <color rgb="FF4C4C4C"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF4C4C4C"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF4C4C4C"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="medium">
+        <color rgb="FF4C4C4C"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF4C4C4C"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF4C4C4C"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="medium">
+        <color rgb="FF4C4C4C"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF4C4C4C"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF4C4C4C"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF4C4C4C"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="thin">
+        <color rgb="FF4C4C4C"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF4C4C4C"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF4C4C4C"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF4C4C4C"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -846,7 +1072,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="17">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -861,6 +1087,58 @@
     </xf>
     <xf numFmtId="164" fontId="15" fillId="10" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="16" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="18" fillId="10" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="19" fillId="10" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="18" fillId="10" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="19" fillId="10" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="18" fillId="10" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="18" fillId="10" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="19" fillId="10" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="16" fillId="10" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="17" fillId="10" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -941,7 +1219,7 @@
       <rgbColor rgb="FF003366"/>
       <rgbColor rgb="FF339966"/>
       <rgbColor rgb="FF003300"/>
-      <rgbColor rgb="FF333300"/>
+      <rgbColor rgb="FF4C4C4C"/>
       <rgbColor rgb="FF993300"/>
       <rgbColor rgb="FF993366"/>
       <rgbColor rgb="FF333399"/>
@@ -956,13 +1234,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:O240"/>
+  <dimension ref="A1:O257"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A227" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A249" activeCellId="0" sqref="240:249"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A221" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A258" activeCellId="0" sqref="A258"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.65" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="15.61"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="44.94"/>
@@ -12157,16 +12435,448 @@
         <v>27</v>
       </c>
     </row>
-    <row r="240" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="241" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="242" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="243" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="244" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="245" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="246" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="247" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="248" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="249" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="240" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A240" s="4" t="s">
+        <v>175</v>
+      </c>
+      <c r="B240" s="5" t="s">
+        <v>176</v>
+      </c>
+      <c r="C240" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="D240" s="0" t="n">
+        <v>30</v>
+      </c>
+      <c r="E240" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="F240" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G240" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="I240" s="0" t="s">
+        <v>177</v>
+      </c>
+      <c r="L240" s="0" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="241" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A241" s="4" t="s">
+        <v>175</v>
+      </c>
+      <c r="B241" s="5" t="s">
+        <v>176</v>
+      </c>
+      <c r="C241" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="D241" s="0" t="n">
+        <v>30</v>
+      </c>
+      <c r="E241" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="F241" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="G241" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="I241" s="0" t="s">
+        <v>177</v>
+      </c>
+      <c r="L241" s="0" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="242" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A242" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="B242" s="8" t="s">
+        <v>179</v>
+      </c>
+      <c r="C242" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="D242" s="0" t="n">
+        <v>30</v>
+      </c>
+      <c r="E242" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="F242" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="G242" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="I242" s="0" t="s">
+        <v>177</v>
+      </c>
+      <c r="L242" s="0" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="243" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A243" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="B243" s="8" t="s">
+        <v>179</v>
+      </c>
+      <c r="C243" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="D243" s="0" t="n">
+        <v>30</v>
+      </c>
+      <c r="E243" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="F243" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="G243" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="I243" s="0" t="s">
+        <v>177</v>
+      </c>
+      <c r="L243" s="0" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="244" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A244" s="9" t="s">
+        <v>180</v>
+      </c>
+      <c r="B244" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="C244" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="D244" s="0" t="n">
+        <v>30</v>
+      </c>
+      <c r="E244" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="F244" s="6" t="s">
+        <v>181</v>
+      </c>
+      <c r="G244" s="6" t="s">
+        <v>182</v>
+      </c>
+      <c r="I244" s="0" t="s">
+        <v>183</v>
+      </c>
+      <c r="L244" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="245" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A245" s="9" t="s">
+        <v>180</v>
+      </c>
+      <c r="B245" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="C245" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="D245" s="0" t="n">
+        <v>30</v>
+      </c>
+      <c r="E245" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="F245" s="6" t="s">
+        <v>181</v>
+      </c>
+      <c r="G245" s="6" t="s">
+        <v>182</v>
+      </c>
+      <c r="I245" s="0" t="s">
+        <v>183</v>
+      </c>
+      <c r="L245" s="0" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="246" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A246" s="11" t="s">
+        <v>184</v>
+      </c>
+      <c r="B246" s="8" t="s">
+        <v>185</v>
+      </c>
+      <c r="C246" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="D246" s="0" t="n">
+        <v>30</v>
+      </c>
+      <c r="E246" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="F246" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="G246" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="I246" s="0" t="s">
+        <v>177</v>
+      </c>
+      <c r="L246" s="0" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="247" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A247" s="11" t="s">
+        <v>184</v>
+      </c>
+      <c r="B247" s="8" t="s">
+        <v>185</v>
+      </c>
+      <c r="C247" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="D247" s="0" t="n">
+        <v>30</v>
+      </c>
+      <c r="E247" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="F247" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="G247" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="I247" s="0" t="s">
+        <v>177</v>
+      </c>
+      <c r="L247" s="0" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="248" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A248" s="12" t="s">
+        <v>186</v>
+      </c>
+      <c r="B248" s="13" t="s">
+        <v>187</v>
+      </c>
+      <c r="C248" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="D248" s="0" t="n">
+        <v>30</v>
+      </c>
+      <c r="E248" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="F248" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="G248" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="I248" s="0" t="s">
+        <v>177</v>
+      </c>
+      <c r="L248" s="0" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="249" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A249" s="12" t="s">
+        <v>186</v>
+      </c>
+      <c r="B249" s="13" t="s">
+        <v>187</v>
+      </c>
+      <c r="C249" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="D249" s="0" t="n">
+        <v>30</v>
+      </c>
+      <c r="E249" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="F249" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="G249" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="I249" s="0" t="s">
+        <v>177</v>
+      </c>
+      <c r="L249" s="0" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="250" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A250" s="14" t="s">
+        <v>188</v>
+      </c>
+      <c r="B250" s="15" t="s">
+        <v>189</v>
+      </c>
+      <c r="C250" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="D250" s="0" t="n">
+        <v>30</v>
+      </c>
+      <c r="F250" s="16"/>
+      <c r="G250" s="16"/>
+      <c r="I250" s="0" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="251" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A251" s="14" t="s">
+        <v>191</v>
+      </c>
+      <c r="B251" s="15" t="s">
+        <v>192</v>
+      </c>
+      <c r="C251" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="D251" s="0" t="n">
+        <v>30</v>
+      </c>
+      <c r="F251" s="16"/>
+      <c r="G251" s="16"/>
+      <c r="I251" s="0" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="252" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A252" s="14" t="s">
+        <v>193</v>
+      </c>
+      <c r="B252" s="15" t="s">
+        <v>194</v>
+      </c>
+      <c r="C252" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="D252" s="0" t="n">
+        <v>30</v>
+      </c>
+      <c r="F252" s="16"/>
+      <c r="G252" s="16"/>
+      <c r="I252" s="0" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="253" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A253" s="14" t="s">
+        <v>195</v>
+      </c>
+      <c r="B253" s="15" t="s">
+        <v>196</v>
+      </c>
+      <c r="C253" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="D253" s="0" t="n">
+        <v>30</v>
+      </c>
+      <c r="F253" s="16"/>
+      <c r="G253" s="16"/>
+      <c r="I253" s="0" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="254" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A254" s="14" t="s">
+        <v>197</v>
+      </c>
+      <c r="B254" s="15" t="s">
+        <v>198</v>
+      </c>
+      <c r="C254" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="D254" s="0" t="n">
+        <v>30</v>
+      </c>
+      <c r="F254" s="16"/>
+      <c r="G254" s="16"/>
+      <c r="I254" s="0" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="255" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A255" s="14" t="s">
+        <v>199</v>
+      </c>
+      <c r="B255" s="15" t="s">
+        <v>200</v>
+      </c>
+      <c r="C255" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="D255" s="0" t="n">
+        <v>30</v>
+      </c>
+      <c r="F255" s="16"/>
+      <c r="G255" s="16"/>
+      <c r="I255" s="0" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="256" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A256" s="14" t="s">
+        <v>201</v>
+      </c>
+      <c r="B256" s="15" t="s">
+        <v>202</v>
+      </c>
+      <c r="C256" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="D256" s="0" t="n">
+        <v>30</v>
+      </c>
+      <c r="F256" s="16"/>
+      <c r="G256" s="16"/>
+      <c r="I256" s="0" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="257" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A257" s="14" t="s">
+        <v>203</v>
+      </c>
+      <c r="B257" s="15" t="s">
+        <v>204</v>
+      </c>
+      <c r="C257" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="D257" s="0" t="n">
+        <v>30</v>
+      </c>
+      <c r="F257" s="16"/>
+      <c r="G257" s="16"/>
+      <c r="I257" s="0" t="s">
+        <v>190</v>
+      </c>
+    </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511805555555555" footer="0.511805555555555"/>

--- a/lib/files/2018-1-Atualizada.xlsx
+++ b/lib/files/2018-1-Atualizada.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3087" uniqueCount="214">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3051" uniqueCount="216">
   <si>
     <t xml:space="preserve">COD_DISCIPLINA</t>
   </si>
@@ -232,129 +232,138 @@
     <t xml:space="preserve">Cálculo II</t>
   </si>
   <si>
+    <t xml:space="preserve">60+15</t>
+  </si>
+  <si>
+    <t xml:space="preserve">113A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Estágio</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CM043</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CALCULO III</t>
+  </si>
+  <si>
+    <t xml:space="preserve">02B</t>
+  </si>
+  <si>
+    <t xml:space="preserve">80+5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">106B</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20+60</t>
+  </si>
+  <si>
+    <t xml:space="preserve">107A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CM044</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CALCULO IV</t>
+  </si>
+  <si>
+    <t xml:space="preserve">40+15</t>
+  </si>
+  <si>
+    <t xml:space="preserve">108A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CM045</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Geometria Analítica</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">114A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I</t>
+  </si>
+  <si>
+    <t xml:space="preserve">J</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CM046</t>
+  </si>
+  <si>
+    <t xml:space="preserve">INTRODUCAO A ALGEBRA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CM048</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CALCULO II</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CM053</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ALGEBRA LINEAR II</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30+20</t>
+  </si>
+  <si>
+    <t xml:space="preserve">109B</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CM068</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VARIAVEIS COMPLEXAS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30+40</t>
+  </si>
+  <si>
+    <t xml:space="preserve">110B</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CM077</t>
+  </si>
+  <si>
+    <t xml:space="preserve">INTRODUCAO A GEOMETRIA DIFERENCIAL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11B</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CM078</t>
+  </si>
+  <si>
+    <t xml:space="preserve">INTRODUCAO A TOPOLOGIA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CM081</t>
+  </si>
+  <si>
+    <t xml:space="preserve">INTRODUCAO AO CALCULO VARIACIONAL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CM096</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Análise Numérica I</t>
+  </si>
+  <si>
     <t xml:space="preserve">26A</t>
   </si>
   <si>
-    <t xml:space="preserve">Estágio</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CM043</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CALCULO III</t>
-  </si>
-  <si>
-    <t xml:space="preserve">02B</t>
-  </si>
-  <si>
-    <t xml:space="preserve">80+5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">106B</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20+60</t>
-  </si>
-  <si>
-    <t xml:space="preserve">107A</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CM044</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CALCULO IV</t>
-  </si>
-  <si>
-    <t xml:space="preserve">40+15</t>
-  </si>
-  <si>
-    <t xml:space="preserve">108A</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CM045</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Geometria Analítica</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24A</t>
-  </si>
-  <si>
-    <t xml:space="preserve">96A</t>
-  </si>
-  <si>
-    <t xml:space="preserve">I</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21A</t>
-  </si>
-  <si>
-    <t xml:space="preserve">J</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CM046</t>
-  </si>
-  <si>
-    <t xml:space="preserve">INTRODUCAO A ALGEBRA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CM048</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CALCULO II</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19A</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CM053</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ALGEBRA LINEAR II</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30+40</t>
-  </si>
-  <si>
-    <t xml:space="preserve">109B</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CM068</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VARIAVEIS COMPLEXAS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">110B</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CM077</t>
-  </si>
-  <si>
-    <t xml:space="preserve">INTRODUCAO A GEOMETRIA DIFERENCIAL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11B</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CM078</t>
-  </si>
-  <si>
-    <t xml:space="preserve">INTRODUCAO A TOPOLOGIA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CM081</t>
-  </si>
-  <si>
-    <t xml:space="preserve">INTRODUCAO AO CALCULO VARIACIONAL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CM096</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Análise Numérica I</t>
-  </si>
-  <si>
     <t xml:space="preserve">CM098</t>
   </si>
   <si>
@@ -365,9 +374,6 @@
   </si>
   <si>
     <t xml:space="preserve">Introdução às Equções Diferenciais Parciais</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30+20</t>
   </si>
   <si>
     <t xml:space="preserve">111B</t>
@@ -1261,10 +1267,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:O247"/>
+  <dimension ref="A1:O244"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A157" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D97" activeCellId="0" sqref="D97"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A123" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="I151" activeCellId="0" sqref="I151"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3173,8 +3179,8 @@
       <c r="C41" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="D41" s="3" t="n">
-        <v>60</v>
+      <c r="D41" s="3" t="s">
+        <v>70</v>
       </c>
       <c r="E41" s="2" t="s">
         <v>30</v>
@@ -3189,7 +3195,7 @@
         <v>21</v>
       </c>
       <c r="I41" s="2" t="s">
-        <v>37</v>
+        <v>71</v>
       </c>
       <c r="J41" s="2" t="s">
         <v>23</v>
@@ -3220,8 +3226,8 @@
       <c r="C42" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="D42" s="3" t="n">
-        <v>60</v>
+      <c r="D42" s="3" t="s">
+        <v>70</v>
       </c>
       <c r="E42" s="2" t="s">
         <v>33</v>
@@ -3236,7 +3242,7 @@
         <v>21</v>
       </c>
       <c r="I42" s="2" t="s">
-        <v>37</v>
+        <v>71</v>
       </c>
       <c r="J42" s="2" t="s">
         <v>23</v>
@@ -3267,8 +3273,8 @@
       <c r="C43" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="D43" s="3" t="n">
-        <v>60</v>
+      <c r="D43" s="3" t="s">
+        <v>70</v>
       </c>
       <c r="E43" s="2" t="s">
         <v>52</v>
@@ -3283,7 +3289,7 @@
         <v>21</v>
       </c>
       <c r="I43" s="2" t="s">
-        <v>37</v>
+        <v>71</v>
       </c>
       <c r="J43" s="2" t="s">
         <v>23</v>
@@ -3453,25 +3459,25 @@
         <v>69</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="D47" s="3" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="F47" s="2" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="G47" s="2" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="H47" s="2" t="s">
         <v>21</v>
       </c>
       <c r="I47" s="2" t="s">
-        <v>70</v>
+        <v>43</v>
       </c>
       <c r="J47" s="2" t="s">
         <v>23</v>
@@ -3480,7 +3486,7 @@
         <v>24</v>
       </c>
       <c r="L47" s="3" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M47" s="2" t="s">
         <v>25</v>
@@ -3500,25 +3506,25 @@
         <v>69</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="D48" s="3" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="F48" s="2" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="G48" s="2" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="H48" s="2" t="s">
-        <v>21</v>
+        <v>72</v>
       </c>
       <c r="I48" s="2" t="s">
-        <v>70</v>
+        <v>43</v>
       </c>
       <c r="J48" s="2" t="s">
         <v>23</v>
@@ -3527,7 +3533,7 @@
         <v>24</v>
       </c>
       <c r="L48" s="3" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M48" s="2" t="s">
         <v>25</v>
@@ -3547,25 +3553,25 @@
         <v>69</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="D49" s="3" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="E49" s="2" t="s">
         <v>52</v>
       </c>
       <c r="F49" s="2" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="G49" s="2" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="H49" s="2" t="s">
         <v>21</v>
       </c>
       <c r="I49" s="2" t="s">
-        <v>70</v>
+        <v>43</v>
       </c>
       <c r="J49" s="2" t="s">
         <v>23</v>
@@ -3588,31 +3594,31 @@
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="2" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>38</v>
+        <v>17</v>
       </c>
       <c r="D50" s="3" t="n">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="F50" s="2" t="s">
-        <v>42</v>
+        <v>20</v>
       </c>
       <c r="G50" s="2" t="s">
-        <v>44</v>
+        <v>31</v>
       </c>
       <c r="H50" s="2" t="s">
         <v>21</v>
       </c>
       <c r="I50" s="2" t="s">
-        <v>43</v>
+        <v>22</v>
       </c>
       <c r="J50" s="2" t="s">
         <v>23</v>
@@ -3621,7 +3627,7 @@
         <v>24</v>
       </c>
       <c r="L50" s="3" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M50" s="2" t="s">
         <v>25</v>
@@ -3635,31 +3641,31 @@
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="2" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>38</v>
+        <v>17</v>
       </c>
       <c r="D51" s="3" t="n">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="F51" s="2" t="s">
-        <v>41</v>
+        <v>20</v>
       </c>
       <c r="G51" s="2" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="H51" s="2" t="s">
-        <v>71</v>
+        <v>21</v>
       </c>
       <c r="I51" s="2" t="s">
-        <v>43</v>
+        <v>22</v>
       </c>
       <c r="J51" s="2" t="s">
         <v>23</v>
@@ -3668,7 +3674,7 @@
         <v>24</v>
       </c>
       <c r="L51" s="3" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="M51" s="2" t="s">
         <v>25</v>
@@ -3682,31 +3688,31 @@
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="2" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="D52" s="3" t="n">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>52</v>
+        <v>30</v>
       </c>
       <c r="F52" s="2" t="s">
-        <v>42</v>
+        <v>55</v>
       </c>
       <c r="G52" s="2" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="H52" s="2" t="s">
         <v>21</v>
       </c>
       <c r="I52" s="2" t="s">
-        <v>43</v>
+        <v>75</v>
       </c>
       <c r="J52" s="2" t="s">
         <v>23</v>
@@ -3715,7 +3721,7 @@
         <v>24</v>
       </c>
       <c r="L52" s="3" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="M52" s="2" t="s">
         <v>25</v>
@@ -3729,31 +3735,31 @@
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="D53" s="3" t="n">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>18</v>
+        <v>33</v>
       </c>
       <c r="F53" s="2" t="s">
-        <v>20</v>
+        <v>55</v>
       </c>
       <c r="G53" s="2" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="H53" s="2" t="s">
         <v>21</v>
       </c>
       <c r="I53" s="2" t="s">
-        <v>22</v>
+        <v>75</v>
       </c>
       <c r="J53" s="2" t="s">
         <v>23</v>
@@ -3762,7 +3768,7 @@
         <v>24</v>
       </c>
       <c r="L53" s="3" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M53" s="2" t="s">
         <v>25</v>
@@ -3776,31 +3782,31 @@
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D54" s="3" t="n">
-        <v>40</v>
+        <v>34</v>
+      </c>
+      <c r="D54" s="3" t="s">
+        <v>76</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F54" s="2" t="s">
-        <v>20</v>
+        <v>55</v>
       </c>
       <c r="G54" s="2" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="H54" s="2" t="s">
         <v>21</v>
       </c>
       <c r="I54" s="2" t="s">
-        <v>22</v>
+        <v>77</v>
       </c>
       <c r="J54" s="2" t="s">
         <v>23</v>
@@ -3809,7 +3815,7 @@
         <v>24</v>
       </c>
       <c r="L54" s="3" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="M54" s="2" t="s">
         <v>25</v>
@@ -3823,19 +3829,19 @@
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="D55" s="3" t="n">
-        <v>80</v>
+        <v>34</v>
+      </c>
+      <c r="D55" s="3" t="s">
+        <v>76</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="F55" s="2" t="s">
         <v>55</v>
@@ -3847,7 +3853,7 @@
         <v>21</v>
       </c>
       <c r="I55" s="2" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="J55" s="2" t="s">
         <v>23</v>
@@ -3856,7 +3862,7 @@
         <v>24</v>
       </c>
       <c r="L55" s="3" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M55" s="2" t="s">
         <v>25</v>
@@ -3870,31 +3876,31 @@
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="D56" s="3" t="n">
-        <v>80</v>
+        <v>38</v>
+      </c>
+      <c r="D56" s="3" t="s">
+        <v>78</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="F56" s="2" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="G56" s="2" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="H56" s="2" t="s">
         <v>21</v>
       </c>
       <c r="I56" s="2" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="J56" s="2" t="s">
         <v>23</v>
@@ -3903,7 +3909,7 @@
         <v>24</v>
       </c>
       <c r="L56" s="3" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="M56" s="2" t="s">
         <v>25</v>
@@ -3917,31 +3923,31 @@
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="D57" s="3" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="F57" s="2" t="s">
-        <v>55</v>
+        <v>41</v>
       </c>
       <c r="G57" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H57" s="2" t="s">
         <v>21</v>
       </c>
       <c r="I57" s="2" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="J57" s="2" t="s">
         <v>23</v>
@@ -3950,7 +3956,7 @@
         <v>24</v>
       </c>
       <c r="L57" s="3" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M57" s="2" t="s">
         <v>25</v>
@@ -3964,31 +3970,31 @@
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="D58" s="3" t="s">
-        <v>75</v>
+        <v>40</v>
+      </c>
+      <c r="D58" s="3" t="n">
+        <v>60</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>33</v>
+        <v>18</v>
       </c>
       <c r="F58" s="2" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="G58" s="2" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="H58" s="2" t="s">
         <v>21</v>
       </c>
       <c r="I58" s="2" t="s">
-        <v>76</v>
+        <v>51</v>
       </c>
       <c r="J58" s="2" t="s">
         <v>23</v>
@@ -3997,7 +4003,7 @@
         <v>24</v>
       </c>
       <c r="L58" s="3" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M58" s="2" t="s">
         <v>25</v>
@@ -4011,31 +4017,31 @@
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="D59" s="3" t="s">
-        <v>77</v>
+        <v>40</v>
+      </c>
+      <c r="D59" s="3" t="n">
+        <v>60</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F59" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="G59" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="G59" s="2" t="s">
-        <v>44</v>
-      </c>
       <c r="H59" s="2" t="s">
         <v>21</v>
       </c>
       <c r="I59" s="2" t="s">
-        <v>78</v>
+        <v>51</v>
       </c>
       <c r="J59" s="2" t="s">
         <v>23</v>
@@ -4044,7 +4050,7 @@
         <v>24</v>
       </c>
       <c r="L59" s="3" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="M59" s="2" t="s">
         <v>25</v>
@@ -4058,31 +4064,31 @@
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="2" t="s">
-        <v>72</v>
+        <v>80</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>73</v>
+        <v>81</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="D60" s="3" t="s">
-        <v>77</v>
+        <v>17</v>
+      </c>
+      <c r="D60" s="3" t="n">
+        <v>40</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>33</v>
+        <v>18</v>
       </c>
       <c r="F60" s="2" t="s">
-        <v>41</v>
+        <v>20</v>
       </c>
       <c r="G60" s="2" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="H60" s="2" t="s">
         <v>21</v>
       </c>
       <c r="I60" s="2" t="s">
-        <v>78</v>
+        <v>22</v>
       </c>
       <c r="J60" s="2" t="s">
         <v>23</v>
@@ -4091,7 +4097,7 @@
         <v>24</v>
       </c>
       <c r="L60" s="3" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M60" s="2" t="s">
         <v>25</v>
@@ -4105,31 +4111,31 @@
     </row>
     <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="2" t="s">
-        <v>72</v>
+        <v>80</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>73</v>
+        <v>81</v>
       </c>
       <c r="C61" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D61" s="3" t="n">
         <v>40</v>
       </c>
-      <c r="D61" s="3" t="n">
-        <v>60</v>
-      </c>
       <c r="E61" s="2" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="F61" s="2" t="s">
-        <v>42</v>
+        <v>20</v>
       </c>
       <c r="G61" s="2" t="s">
-        <v>44</v>
+        <v>31</v>
       </c>
       <c r="H61" s="2" t="s">
         <v>21</v>
       </c>
       <c r="I61" s="2" t="s">
-        <v>51</v>
+        <v>22</v>
       </c>
       <c r="J61" s="2" t="s">
         <v>23</v>
@@ -4138,7 +4144,7 @@
         <v>24</v>
       </c>
       <c r="L61" s="3" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="M61" s="2" t="s">
         <v>25</v>
@@ -4152,31 +4158,31 @@
     </row>
     <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="2" t="s">
-        <v>72</v>
+        <v>80</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>73</v>
+        <v>81</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="D62" s="3" t="n">
-        <v>60</v>
+        <v>29</v>
+      </c>
+      <c r="D62" s="3" t="s">
+        <v>82</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="F62" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G62" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="H62" s="2" t="s">
         <v>21</v>
       </c>
       <c r="I62" s="2" t="s">
-        <v>51</v>
+        <v>83</v>
       </c>
       <c r="J62" s="2" t="s">
         <v>23</v>
@@ -4185,7 +4191,7 @@
         <v>24</v>
       </c>
       <c r="L62" s="3" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="M62" s="2" t="s">
         <v>25</v>
@@ -4199,31 +4205,31 @@
     </row>
     <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D63" s="3" t="n">
-        <v>40</v>
+        <v>29</v>
+      </c>
+      <c r="D63" s="3" t="s">
+        <v>82</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="F63" s="2" t="s">
-        <v>20</v>
+        <v>41</v>
       </c>
       <c r="G63" s="2" t="s">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="H63" s="2" t="s">
         <v>21</v>
       </c>
       <c r="I63" s="2" t="s">
-        <v>22</v>
+        <v>83</v>
       </c>
       <c r="J63" s="2" t="s">
         <v>23</v>
@@ -4232,7 +4238,7 @@
         <v>24</v>
       </c>
       <c r="L63" s="3" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="M63" s="2" t="s">
         <v>25</v>
@@ -4246,31 +4252,31 @@
     </row>
     <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="2" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="C64" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D64" s="3" t="n">
-        <v>40</v>
+        <v>100</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F64" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G64" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="G64" s="2" t="s">
-        <v>31</v>
-      </c>
       <c r="H64" s="2" t="s">
         <v>21</v>
       </c>
       <c r="I64" s="2" t="s">
-        <v>22</v>
+        <v>75</v>
       </c>
       <c r="J64" s="2" t="s">
         <v>23</v>
@@ -4279,7 +4285,7 @@
         <v>24</v>
       </c>
       <c r="L64" s="3" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="M64" s="2" t="s">
         <v>25</v>
@@ -4293,31 +4299,31 @@
     </row>
     <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="2" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="D65" s="3" t="s">
-        <v>81</v>
+        <v>17</v>
+      </c>
+      <c r="D65" s="3" t="n">
+        <v>100</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>18</v>
+        <v>33</v>
       </c>
       <c r="F65" s="2" t="s">
-        <v>42</v>
+        <v>19</v>
       </c>
       <c r="G65" s="2" t="s">
-        <v>44</v>
+        <v>20</v>
       </c>
       <c r="H65" s="2" t="s">
         <v>21</v>
       </c>
       <c r="I65" s="2" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="J65" s="2" t="s">
         <v>23</v>
@@ -4326,7 +4332,7 @@
         <v>24</v>
       </c>
       <c r="L65" s="3" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M65" s="2" t="s">
         <v>25</v>
@@ -4340,31 +4346,31 @@
     </row>
     <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="2" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="C66" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="D66" s="3" t="s">
-        <v>81</v>
+      <c r="D66" s="3" t="n">
+        <v>100</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F66" s="2" t="s">
-        <v>41</v>
+        <v>19</v>
       </c>
       <c r="G66" s="2" t="s">
-        <v>42</v>
+        <v>20</v>
       </c>
       <c r="H66" s="2" t="s">
         <v>21</v>
       </c>
       <c r="I66" s="2" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="J66" s="2" t="s">
         <v>23</v>
@@ -4373,7 +4379,7 @@
         <v>24</v>
       </c>
       <c r="L66" s="3" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="M66" s="2" t="s">
         <v>25</v>
@@ -4387,19 +4393,19 @@
     </row>
     <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="D67" s="3" t="n">
         <v>100</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="F67" s="2" t="s">
         <v>19</v>
@@ -4411,7 +4417,7 @@
         <v>21</v>
       </c>
       <c r="I67" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="J67" s="2" t="s">
         <v>23</v>
@@ -4420,7 +4426,7 @@
         <v>24</v>
       </c>
       <c r="L67" s="3" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M67" s="2" t="s">
         <v>25</v>
@@ -4434,19 +4440,19 @@
     </row>
     <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>17</v>
+        <v>34</v>
       </c>
       <c r="D68" s="3" t="n">
-        <v>100</v>
+        <v>16</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>33</v>
+        <v>18</v>
       </c>
       <c r="F68" s="2" t="s">
         <v>19</v>
@@ -4458,7 +4464,7 @@
         <v>21</v>
       </c>
       <c r="I68" s="2" t="s">
-        <v>74</v>
+        <v>37</v>
       </c>
       <c r="J68" s="2" t="s">
         <v>23</v>
@@ -4467,7 +4473,7 @@
         <v>24</v>
       </c>
       <c r="L68" s="3" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M68" s="2" t="s">
         <v>25</v>
@@ -4481,19 +4487,19 @@
     </row>
     <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="D69" s="3" t="n">
-        <v>100</v>
+        <v>16</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F69" s="2" t="s">
         <v>19</v>
@@ -4505,7 +4511,7 @@
         <v>21</v>
       </c>
       <c r="I69" s="2" t="s">
-        <v>74</v>
+        <v>37</v>
       </c>
       <c r="J69" s="2" t="s">
         <v>23</v>
@@ -4514,7 +4520,7 @@
         <v>24</v>
       </c>
       <c r="L69" s="3" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="M69" s="2" t="s">
         <v>25</v>
@@ -4528,19 +4534,19 @@
     </row>
     <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="D70" s="3" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>33</v>
+        <v>18</v>
       </c>
       <c r="F70" s="2" t="s">
         <v>19</v>
@@ -4552,7 +4558,7 @@
         <v>21</v>
       </c>
       <c r="I70" s="2" t="s">
-        <v>74</v>
+        <v>86</v>
       </c>
       <c r="J70" s="2" t="s">
         <v>23</v>
@@ -4561,7 +4567,7 @@
         <v>24</v>
       </c>
       <c r="L70" s="3" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M70" s="2" t="s">
         <v>25</v>
@@ -4575,19 +4581,19 @@
     </row>
     <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="D71" s="3" t="n">
-        <v>16</v>
+        <v>50</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="F71" s="2" t="s">
         <v>19</v>
@@ -4599,7 +4605,7 @@
         <v>21</v>
       </c>
       <c r="I71" s="2" t="s">
-        <v>37</v>
+        <v>86</v>
       </c>
       <c r="J71" s="2" t="s">
         <v>23</v>
@@ -4608,7 +4614,7 @@
         <v>24</v>
       </c>
       <c r="L71" s="3" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="M71" s="2" t="s">
         <v>25</v>
@@ -4622,19 +4628,19 @@
     </row>
     <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="D72" s="3" t="n">
-        <v>16</v>
+        <v>74</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="F72" s="2" t="s">
         <v>19</v>
@@ -4646,7 +4652,7 @@
         <v>21</v>
       </c>
       <c r="I72" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="J72" s="2" t="s">
         <v>23</v>
@@ -4655,7 +4661,7 @@
         <v>24</v>
       </c>
       <c r="L72" s="3" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="M72" s="2" t="s">
         <v>25</v>
@@ -4669,19 +4675,19 @@
     </row>
     <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="D73" s="3" t="n">
-        <v>50</v>
+        <v>74</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="F73" s="2" t="s">
         <v>19</v>
@@ -4693,7 +4699,7 @@
         <v>21</v>
       </c>
       <c r="I73" s="2" t="s">
-        <v>85</v>
+        <v>39</v>
       </c>
       <c r="J73" s="2" t="s">
         <v>23</v>
@@ -4702,7 +4708,7 @@
         <v>24</v>
       </c>
       <c r="L73" s="3" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="M73" s="2" t="s">
         <v>25</v>
@@ -4716,31 +4722,31 @@
     </row>
     <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="D74" s="3" t="n">
-        <v>50</v>
+        <v>65</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="F74" s="2" t="s">
-        <v>19</v>
+        <v>35</v>
       </c>
       <c r="G74" s="2" t="s">
-        <v>20</v>
+        <v>36</v>
       </c>
       <c r="H74" s="2" t="s">
         <v>21</v>
       </c>
       <c r="I74" s="2" t="s">
-        <v>85</v>
+        <v>61</v>
       </c>
       <c r="J74" s="2" t="s">
         <v>23</v>
@@ -4749,7 +4755,7 @@
         <v>24</v>
       </c>
       <c r="L74" s="3" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="M74" s="2" t="s">
         <v>25</v>
@@ -4763,31 +4769,31 @@
     </row>
     <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="D75" s="3" t="n">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="F75" s="2" t="s">
-        <v>19</v>
+        <v>35</v>
       </c>
       <c r="G75" s="2" t="s">
-        <v>20</v>
+        <v>36</v>
       </c>
       <c r="H75" s="2" t="s">
         <v>21</v>
       </c>
       <c r="I75" s="2" t="s">
-        <v>39</v>
+        <v>61</v>
       </c>
       <c r="J75" s="2" t="s">
         <v>23</v>
@@ -4796,7 +4802,7 @@
         <v>24</v>
       </c>
       <c r="L75" s="3" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="M75" s="2" t="s">
         <v>25</v>
@@ -4810,31 +4816,31 @@
     </row>
     <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="D76" s="3" t="n">
-        <v>74</v>
+        <v>102</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="F76" s="2" t="s">
-        <v>19</v>
+        <v>35</v>
       </c>
       <c r="G76" s="2" t="s">
-        <v>20</v>
+        <v>36</v>
       </c>
       <c r="H76" s="2" t="s">
         <v>21</v>
       </c>
       <c r="I76" s="2" t="s">
-        <v>39</v>
+        <v>62</v>
       </c>
       <c r="J76" s="2" t="s">
         <v>23</v>
@@ -4843,7 +4849,7 @@
         <v>24</v>
       </c>
       <c r="L76" s="3" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="M76" s="2" t="s">
         <v>25</v>
@@ -4857,19 +4863,19 @@
     </row>
     <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="D77" s="3" t="n">
-        <v>65</v>
+        <v>102</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="F77" s="2" t="s">
         <v>35</v>
@@ -4881,7 +4887,7 @@
         <v>21</v>
       </c>
       <c r="I77" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="J77" s="2" t="s">
         <v>23</v>
@@ -4890,7 +4896,7 @@
         <v>24</v>
       </c>
       <c r="L77" s="3" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="M77" s="2" t="s">
         <v>25</v>
@@ -4904,31 +4910,31 @@
     </row>
     <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>45</v>
+        <v>64</v>
       </c>
       <c r="D78" s="3" t="n">
-        <v>65</v>
+        <v>35</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="F78" s="2" t="s">
-        <v>35</v>
+        <v>55</v>
       </c>
       <c r="G78" s="2" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="H78" s="2" t="s">
         <v>21</v>
       </c>
       <c r="I78" s="2" t="s">
-        <v>61</v>
+        <v>87</v>
       </c>
       <c r="J78" s="2" t="s">
         <v>23</v>
@@ -4937,7 +4943,7 @@
         <v>24</v>
       </c>
       <c r="L78" s="3" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="M78" s="2" t="s">
         <v>25</v>
@@ -4951,31 +4957,31 @@
     </row>
     <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>50</v>
+        <v>64</v>
       </c>
       <c r="D79" s="3" t="n">
-        <v>102</v>
+        <v>35</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="F79" s="2" t="s">
-        <v>35</v>
+        <v>55</v>
       </c>
       <c r="G79" s="2" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="H79" s="2" t="s">
         <v>21</v>
       </c>
       <c r="I79" s="2" t="s">
-        <v>62</v>
+        <v>87</v>
       </c>
       <c r="J79" s="2" t="s">
         <v>23</v>
@@ -4984,7 +4990,7 @@
         <v>24</v>
       </c>
       <c r="L79" s="3" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="M79" s="2" t="s">
         <v>25</v>
@@ -4998,31 +5004,31 @@
     </row>
     <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>50</v>
+        <v>88</v>
       </c>
       <c r="D80" s="3" t="n">
-        <v>102</v>
+        <v>15</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="F80" s="2" t="s">
-        <v>35</v>
+        <v>55</v>
       </c>
       <c r="G80" s="2" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="H80" s="2" t="s">
         <v>21</v>
       </c>
       <c r="I80" s="2" t="s">
-        <v>62</v>
+        <v>87</v>
       </c>
       <c r="J80" s="2" t="s">
         <v>23</v>
@@ -5031,7 +5037,7 @@
         <v>24</v>
       </c>
       <c r="L80" s="3" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="M80" s="2" t="s">
         <v>25</v>
@@ -5045,19 +5051,19 @@
     </row>
     <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>64</v>
+        <v>88</v>
       </c>
       <c r="D81" s="3" t="n">
-        <v>35</v>
+        <v>15</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="F81" s="2" t="s">
         <v>55</v>
@@ -5069,7 +5075,7 @@
         <v>21</v>
       </c>
       <c r="I81" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="J81" s="2" t="s">
         <v>23</v>
@@ -5078,7 +5084,7 @@
         <v>24</v>
       </c>
       <c r="L81" s="3" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="M81" s="2" t="s">
         <v>25</v>
@@ -5092,31 +5098,31 @@
     </row>
     <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>64</v>
+        <v>89</v>
       </c>
       <c r="D82" s="3" t="n">
-        <v>35</v>
+        <v>81</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="F82" s="2" t="s">
-        <v>55</v>
+        <v>41</v>
       </c>
       <c r="G82" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H82" s="2" t="s">
         <v>21</v>
       </c>
       <c r="I82" s="2" t="s">
-        <v>86</v>
+        <v>63</v>
       </c>
       <c r="J82" s="2" t="s">
         <v>23</v>
@@ -5125,7 +5131,7 @@
         <v>24</v>
       </c>
       <c r="L82" s="3" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="M82" s="2" t="s">
         <v>25</v>
@@ -5139,31 +5145,31 @@
     </row>
     <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="D83" s="3" t="n">
-        <v>15</v>
+        <v>81</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>18</v>
+        <v>33</v>
       </c>
       <c r="F83" s="2" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="G83" s="2" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="H83" s="2" t="s">
         <v>21</v>
       </c>
       <c r="I83" s="2" t="s">
-        <v>88</v>
+        <v>63</v>
       </c>
       <c r="J83" s="2" t="s">
         <v>23</v>
@@ -5172,7 +5178,7 @@
         <v>24</v>
       </c>
       <c r="L83" s="3" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M83" s="2" t="s">
         <v>25</v>
@@ -5186,31 +5192,31 @@
     </row>
     <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="2" t="s">
-        <v>83</v>
+        <v>90</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>84</v>
+        <v>91</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>87</v>
+        <v>17</v>
       </c>
       <c r="D84" s="3" t="n">
         <v>15</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="F84" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="G84" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="G84" s="2" t="s">
-        <v>41</v>
-      </c>
       <c r="H84" s="2" t="s">
         <v>21</v>
       </c>
       <c r="I84" s="2" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="J84" s="2" t="s">
         <v>23</v>
@@ -5219,7 +5225,7 @@
         <v>24</v>
       </c>
       <c r="L84" s="3" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="M84" s="2" t="s">
         <v>25</v>
@@ -5233,31 +5239,31 @@
     </row>
     <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="2" t="s">
-        <v>83</v>
+        <v>90</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>84</v>
+        <v>91</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>89</v>
+        <v>17</v>
       </c>
       <c r="D85" s="3" t="n">
-        <v>81</v>
+        <v>15</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="F85" s="2" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="G85" s="2" t="s">
-        <v>42</v>
+        <v>55</v>
       </c>
       <c r="H85" s="2" t="s">
         <v>21</v>
       </c>
       <c r="I85" s="2" t="s">
-        <v>63</v>
+        <v>92</v>
       </c>
       <c r="J85" s="2" t="s">
         <v>23</v>
@@ -5266,7 +5272,7 @@
         <v>24</v>
       </c>
       <c r="L85" s="3" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="M85" s="2" t="s">
         <v>25</v>
@@ -5280,31 +5286,31 @@
     </row>
     <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="2" t="s">
-        <v>83</v>
+        <v>93</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>84</v>
+        <v>94</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>89</v>
+        <v>17</v>
       </c>
       <c r="D86" s="3" t="n">
-        <v>81</v>
+        <v>50</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>33</v>
+        <v>18</v>
       </c>
       <c r="F86" s="2" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="G86" s="2" t="s">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="H86" s="2" t="s">
         <v>21</v>
       </c>
       <c r="I86" s="2" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="J86" s="2" t="s">
         <v>23</v>
@@ -5313,7 +5319,7 @@
         <v>24</v>
       </c>
       <c r="L86" s="3" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M86" s="2" t="s">
         <v>25</v>
@@ -5327,19 +5333,19 @@
     </row>
     <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="2" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="C87" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D87" s="3" t="n">
-        <v>15</v>
+        <v>50</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="F87" s="2" t="s">
         <v>36</v>
@@ -5351,7 +5357,7 @@
         <v>21</v>
       </c>
       <c r="I87" s="2" t="s">
-        <v>88</v>
+        <v>56</v>
       </c>
       <c r="J87" s="2" t="s">
         <v>23</v>
@@ -5360,7 +5366,7 @@
         <v>24</v>
       </c>
       <c r="L87" s="3" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="M87" s="2" t="s">
         <v>25</v>
@@ -5374,31 +5380,31 @@
     </row>
     <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="2" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="C88" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D88" s="3" t="n">
-        <v>15</v>
+        <v>50</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>28</v>
+        <v>52</v>
       </c>
       <c r="F88" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="G88" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="G88" s="2" t="s">
-        <v>55</v>
-      </c>
       <c r="H88" s="2" t="s">
         <v>21</v>
       </c>
       <c r="I88" s="2" t="s">
-        <v>88</v>
+        <v>56</v>
       </c>
       <c r="J88" s="2" t="s">
         <v>23</v>
@@ -5407,7 +5413,7 @@
         <v>24</v>
       </c>
       <c r="L88" s="3" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="M88" s="2" t="s">
         <v>25</v>
@@ -5421,31 +5427,31 @@
     </row>
     <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="D89" s="3" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="E89" s="2" t="s">
         <v>18</v>
       </c>
       <c r="F89" s="2" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="G89" s="2" t="s">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="H89" s="2" t="s">
         <v>21</v>
       </c>
       <c r="I89" s="2" t="s">
-        <v>56</v>
+        <v>95</v>
       </c>
       <c r="J89" s="2" t="s">
         <v>23</v>
@@ -5468,31 +5474,31 @@
     </row>
     <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="D90" s="3" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="E90" s="2" t="s">
         <v>28</v>
       </c>
       <c r="F90" s="2" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="G90" s="2" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="H90" s="2" t="s">
         <v>21</v>
       </c>
       <c r="I90" s="2" t="s">
-        <v>56</v>
+        <v>95</v>
       </c>
       <c r="J90" s="2" t="s">
         <v>23</v>
@@ -5515,31 +5521,31 @@
     </row>
     <row r="91" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="D91" s="3" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="E91" s="2" t="s">
         <v>52</v>
       </c>
       <c r="F91" s="2" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="G91" s="2" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="H91" s="2" t="s">
         <v>21</v>
       </c>
       <c r="I91" s="2" t="s">
-        <v>56</v>
+        <v>95</v>
       </c>
       <c r="J91" s="2" t="s">
         <v>23</v>
@@ -5562,31 +5568,31 @@
     </row>
     <row r="92" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="2" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="D92" s="3" t="n">
-        <v>40</v>
+        <v>17</v>
+      </c>
+      <c r="D92" s="3" t="s">
+        <v>98</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="F92" s="2" t="s">
-        <v>42</v>
+        <v>55</v>
       </c>
       <c r="G92" s="2" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="H92" s="2" t="s">
         <v>21</v>
       </c>
       <c r="I92" s="2" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="J92" s="2" t="s">
         <v>23</v>
@@ -5595,7 +5601,7 @@
         <v>24</v>
       </c>
       <c r="L92" s="3" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M92" s="2" t="s">
         <v>25</v>
@@ -5609,31 +5615,31 @@
     </row>
     <row r="93" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="2" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="D93" s="3" t="n">
-        <v>40</v>
+        <v>17</v>
+      </c>
+      <c r="D93" s="3" t="s">
+        <v>98</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="F93" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="G93" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="G93" s="2" t="s">
-        <v>42</v>
-      </c>
       <c r="H93" s="2" t="s">
         <v>21</v>
       </c>
       <c r="I93" s="2" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="J93" s="2" t="s">
         <v>23</v>
@@ -5642,7 +5648,7 @@
         <v>24</v>
       </c>
       <c r="L93" s="3" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M93" s="2" t="s">
         <v>25</v>
@@ -5656,31 +5662,31 @@
     </row>
     <row r="94" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A94" s="2" t="s">
-        <v>92</v>
+        <v>100</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>93</v>
+        <v>101</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="D94" s="3" t="n">
-        <v>40</v>
+        <v>17</v>
+      </c>
+      <c r="D94" s="3" t="s">
+        <v>102</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>52</v>
+        <v>30</v>
       </c>
       <c r="F94" s="2" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="G94" s="2" t="s">
-        <v>42</v>
+        <v>55</v>
       </c>
       <c r="H94" s="2" t="s">
         <v>21</v>
       </c>
       <c r="I94" s="2" t="s">
-        <v>94</v>
+        <v>103</v>
       </c>
       <c r="J94" s="2" t="s">
         <v>23</v>
@@ -5689,7 +5695,7 @@
         <v>24</v>
       </c>
       <c r="L94" s="3" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="M94" s="2" t="s">
         <v>25</v>
@@ -5703,31 +5709,31 @@
     </row>
     <row r="95" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A95" s="2" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="C95" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D95" s="3" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="F95" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G95" s="2" t="s">
-        <v>36</v>
+        <v>55</v>
       </c>
       <c r="H95" s="2" t="s">
         <v>21</v>
       </c>
       <c r="I95" s="2" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="J95" s="2" t="s">
         <v>23</v>
@@ -5736,7 +5742,7 @@
         <v>24</v>
       </c>
       <c r="L95" s="3" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M95" s="2" t="s">
         <v>25</v>
@@ -5750,19 +5756,19 @@
     </row>
     <row r="96" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A96" s="2" t="s">
-        <v>95</v>
+        <v>104</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>96</v>
+        <v>105</v>
       </c>
       <c r="C96" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="D96" s="3" t="s">
-        <v>97</v>
+      <c r="D96" s="3" t="n">
+        <v>30</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>33</v>
+        <v>18</v>
       </c>
       <c r="F96" s="2" t="s">
         <v>35</v>
@@ -5774,7 +5780,7 @@
         <v>21</v>
       </c>
       <c r="I96" s="2" t="s">
-        <v>98</v>
+        <v>106</v>
       </c>
       <c r="J96" s="2" t="s">
         <v>23</v>
@@ -5783,7 +5789,7 @@
         <v>24</v>
       </c>
       <c r="L96" s="3" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M96" s="2" t="s">
         <v>25</v>
@@ -5797,31 +5803,31 @@
     </row>
     <row r="97" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A97" s="2" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="C97" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="D97" s="3" t="s">
-        <v>97</v>
+      <c r="D97" s="3" t="n">
+        <v>30</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F97" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="G97" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="G97" s="2" t="s">
-        <v>55</v>
-      </c>
       <c r="H97" s="2" t="s">
         <v>21</v>
       </c>
       <c r="I97" s="2" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="J97" s="2" t="s">
         <v>23</v>
@@ -5830,7 +5836,7 @@
         <v>24</v>
       </c>
       <c r="L97" s="3" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="M97" s="2" t="s">
         <v>25</v>
@@ -5844,31 +5850,31 @@
     </row>
     <row r="98" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A98" s="2" t="s">
-        <v>99</v>
+        <v>107</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>100</v>
+        <v>108</v>
       </c>
       <c r="C98" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="D98" s="3" t="s">
-        <v>97</v>
+      <c r="D98" s="3" t="n">
+        <v>30</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="F98" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="G98" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="G98" s="2" t="s">
-        <v>55</v>
-      </c>
       <c r="H98" s="2" t="s">
         <v>21</v>
       </c>
       <c r="I98" s="2" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="J98" s="2" t="s">
         <v>23</v>
@@ -5877,7 +5883,7 @@
         <v>24</v>
       </c>
       <c r="L98" s="3" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="M98" s="2" t="s">
         <v>25</v>
@@ -5891,10 +5897,10 @@
     </row>
     <row r="99" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A99" s="2" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="C99" s="2" t="s">
         <v>17</v>
@@ -5903,7 +5909,7 @@
         <v>30</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>18</v>
+        <v>33</v>
       </c>
       <c r="F99" s="2" t="s">
         <v>35</v>
@@ -5915,7 +5921,7 @@
         <v>21</v>
       </c>
       <c r="I99" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="J99" s="2" t="s">
         <v>23</v>
@@ -5924,7 +5930,7 @@
         <v>24</v>
       </c>
       <c r="L99" s="3" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M99" s="2" t="s">
         <v>25</v>
@@ -5938,31 +5944,31 @@
     </row>
     <row r="100" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A100" s="2" t="s">
-        <v>102</v>
+        <v>109</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>103</v>
+        <v>110</v>
       </c>
       <c r="C100" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D100" s="3" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="F100" s="2" t="s">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="G100" s="2" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="H100" s="2" t="s">
         <v>21</v>
       </c>
       <c r="I100" s="2" t="s">
-        <v>104</v>
+        <v>56</v>
       </c>
       <c r="J100" s="2" t="s">
         <v>23</v>
@@ -5971,7 +5977,7 @@
         <v>24</v>
       </c>
       <c r="L100" s="3" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="M100" s="2" t="s">
         <v>25</v>
@@ -5985,31 +5991,31 @@
     </row>
     <row r="101" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A101" s="2" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="C101" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D101" s="3" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F101" s="2" t="s">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="G101" s="2" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="H101" s="2" t="s">
         <v>21</v>
       </c>
       <c r="I101" s="2" t="s">
-        <v>104</v>
+        <v>56</v>
       </c>
       <c r="J101" s="2" t="s">
         <v>23</v>
@@ -6018,7 +6024,7 @@
         <v>24</v>
       </c>
       <c r="L101" s="3" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="M101" s="2" t="s">
         <v>25</v>
@@ -6032,10 +6038,10 @@
     </row>
     <row r="102" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A102" s="2" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>106</v>
+        <v>112</v>
       </c>
       <c r="C102" s="2" t="s">
         <v>17</v>
@@ -6044,19 +6050,19 @@
         <v>30</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>33</v>
+        <v>18</v>
       </c>
       <c r="F102" s="2" t="s">
-        <v>35</v>
+        <v>55</v>
       </c>
       <c r="G102" s="2" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="H102" s="2" t="s">
         <v>21</v>
       </c>
       <c r="I102" s="2" t="s">
-        <v>104</v>
+        <v>113</v>
       </c>
       <c r="J102" s="2" t="s">
         <v>23</v>
@@ -6065,7 +6071,7 @@
         <v>24</v>
       </c>
       <c r="L102" s="3" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M102" s="2" t="s">
         <v>25</v>
@@ -6079,31 +6085,31 @@
     </row>
     <row r="103" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A103" s="2" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="C103" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D103" s="3" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="F103" s="2" t="s">
-        <v>20</v>
+        <v>55</v>
       </c>
       <c r="G103" s="2" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="H103" s="2" t="s">
         <v>21</v>
       </c>
       <c r="I103" s="2" t="s">
-        <v>56</v>
+        <v>113</v>
       </c>
       <c r="J103" s="2" t="s">
         <v>23</v>
@@ -6112,7 +6118,7 @@
         <v>24</v>
       </c>
       <c r="L103" s="3" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="M103" s="2" t="s">
         <v>25</v>
@@ -6126,31 +6132,31 @@
     </row>
     <row r="104" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A104" s="2" t="s">
-        <v>107</v>
+        <v>114</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>108</v>
+        <v>115</v>
       </c>
       <c r="C104" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D104" s="3" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F104" s="2" t="s">
-        <v>20</v>
+        <v>41</v>
       </c>
       <c r="G104" s="2" t="s">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="H104" s="2" t="s">
         <v>21</v>
       </c>
       <c r="I104" s="2" t="s">
-        <v>56</v>
+        <v>113</v>
       </c>
       <c r="J104" s="2" t="s">
         <v>23</v>
@@ -6159,7 +6165,7 @@
         <v>24</v>
       </c>
       <c r="L104" s="3" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="M104" s="2" t="s">
         <v>25</v>
@@ -6173,10 +6179,10 @@
     </row>
     <row r="105" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A105" s="2" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="C105" s="2" t="s">
         <v>17</v>
@@ -6185,19 +6191,17 @@
         <v>30</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>18</v>
+        <v>33</v>
       </c>
       <c r="F105" s="2" t="s">
-        <v>55</v>
+        <v>41</v>
       </c>
       <c r="G105" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="H105" s="2" t="s">
-        <v>21</v>
-      </c>
+        <v>42</v>
+      </c>
+      <c r="H105" s="2"/>
       <c r="I105" s="2" t="s">
-        <v>70</v>
+        <v>113</v>
       </c>
       <c r="J105" s="2" t="s">
         <v>23</v>
@@ -6206,7 +6210,7 @@
         <v>24</v>
       </c>
       <c r="L105" s="3" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M105" s="2" t="s">
         <v>25</v>
@@ -6220,31 +6224,31 @@
     </row>
     <row r="106" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A106" s="2" t="s">
-        <v>109</v>
+        <v>116</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>110</v>
+        <v>117</v>
       </c>
       <c r="C106" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="D106" s="3" t="n">
-        <v>30</v>
+      <c r="D106" s="3" t="s">
+        <v>98</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="F106" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="G106" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="G106" s="2" t="s">
-        <v>41</v>
-      </c>
       <c r="H106" s="2" t="s">
         <v>21</v>
       </c>
       <c r="I106" s="2" t="s">
-        <v>70</v>
+        <v>118</v>
       </c>
       <c r="J106" s="2" t="s">
         <v>23</v>
@@ -6253,7 +6257,7 @@
         <v>24</v>
       </c>
       <c r="L106" s="3" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="M106" s="2" t="s">
         <v>25</v>
@@ -6267,31 +6271,31 @@
     </row>
     <row r="107" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A107" s="2" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="C107" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="D107" s="3" t="n">
-        <v>30</v>
+      <c r="D107" s="3" t="s">
+        <v>98</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F107" s="2" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="G107" s="2" t="s">
-        <v>42</v>
+        <v>55</v>
       </c>
       <c r="H107" s="2" t="s">
         <v>21</v>
       </c>
       <c r="I107" s="2" t="s">
-        <v>70</v>
+        <v>118</v>
       </c>
       <c r="J107" s="2" t="s">
         <v>23</v>
@@ -6300,7 +6304,7 @@
         <v>24</v>
       </c>
       <c r="L107" s="3" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="M107" s="2" t="s">
         <v>25</v>
@@ -6314,10 +6318,10 @@
     </row>
     <row r="108" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A108" s="2" t="s">
-        <v>111</v>
+        <v>119</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>112</v>
+        <v>120</v>
       </c>
       <c r="C108" s="2" t="s">
         <v>17</v>
@@ -6326,17 +6330,19 @@
         <v>30</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>33</v>
+        <v>18</v>
       </c>
       <c r="F108" s="2" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="G108" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="H108" s="2"/>
+        <v>36</v>
+      </c>
+      <c r="H108" s="2" t="s">
+        <v>21</v>
+      </c>
       <c r="I108" s="2" t="s">
-        <v>70</v>
+        <v>113</v>
       </c>
       <c r="J108" s="2" t="s">
         <v>23</v>
@@ -6345,7 +6351,7 @@
         <v>24</v>
       </c>
       <c r="L108" s="3" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M108" s="2" t="s">
         <v>25</v>
@@ -6359,31 +6365,31 @@
     </row>
     <row r="109" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A109" s="2" t="s">
-        <v>113</v>
+        <v>119</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>114</v>
+        <v>120</v>
       </c>
       <c r="C109" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="D109" s="3" t="s">
-        <v>115</v>
+      <c r="D109" s="3" t="n">
+        <v>30</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="F109" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="G109" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="G109" s="2" t="s">
-        <v>55</v>
-      </c>
       <c r="H109" s="2" t="s">
         <v>21</v>
       </c>
       <c r="I109" s="2" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="J109" s="2" t="s">
         <v>23</v>
@@ -6392,7 +6398,7 @@
         <v>24</v>
       </c>
       <c r="L109" s="3" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="M109" s="2" t="s">
         <v>25</v>
@@ -6406,19 +6412,19 @@
     </row>
     <row r="110" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A110" s="2" t="s">
-        <v>113</v>
+        <v>121</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>114</v>
+        <v>122</v>
       </c>
       <c r="C110" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="D110" s="3" t="s">
-        <v>115</v>
+      <c r="D110" s="3" t="n">
+        <v>31</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="F110" s="2" t="s">
         <v>36</v>
@@ -6430,7 +6436,7 @@
         <v>21</v>
       </c>
       <c r="I110" s="2" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="J110" s="2" t="s">
         <v>23</v>
@@ -6439,7 +6445,7 @@
         <v>24</v>
       </c>
       <c r="L110" s="3" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="M110" s="2" t="s">
         <v>25</v>
@@ -6453,31 +6459,31 @@
     </row>
     <row r="111" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A111" s="2" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="C111" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D111" s="3" t="n">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E111" s="2" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="F111" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G111" s="2" t="s">
-        <v>36</v>
+        <v>55</v>
       </c>
       <c r="H111" s="2" t="s">
         <v>21</v>
       </c>
       <c r="I111" s="2" t="s">
-        <v>70</v>
+        <v>113</v>
       </c>
       <c r="J111" s="2" t="s">
         <v>23</v>
@@ -6486,7 +6492,7 @@
         <v>24</v>
       </c>
       <c r="L111" s="3" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="M111" s="2" t="s">
         <v>25</v>
@@ -6500,10 +6506,10 @@
     </row>
     <row r="112" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A112" s="2" t="s">
-        <v>117</v>
+        <v>123</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>118</v>
+        <v>124</v>
       </c>
       <c r="C112" s="2" t="s">
         <v>17</v>
@@ -6512,19 +6518,19 @@
         <v>30</v>
       </c>
       <c r="E112" s="2" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="F112" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G112" s="2" t="s">
-        <v>36</v>
+        <v>55</v>
       </c>
       <c r="H112" s="2" t="s">
         <v>21</v>
       </c>
       <c r="I112" s="2" t="s">
-        <v>70</v>
+        <v>106</v>
       </c>
       <c r="J112" s="2" t="s">
         <v>23</v>
@@ -6533,7 +6539,7 @@
         <v>24</v>
       </c>
       <c r="L112" s="3" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="M112" s="2" t="s">
         <v>25</v>
@@ -6547,19 +6553,19 @@
     </row>
     <row r="113" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A113" s="2" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="C113" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D113" s="3" t="n">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E113" s="2" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="F113" s="2" t="s">
         <v>36</v>
@@ -6571,7 +6577,7 @@
         <v>21</v>
       </c>
       <c r="I113" s="2" t="s">
-        <v>70</v>
+        <v>106</v>
       </c>
       <c r="J113" s="2" t="s">
         <v>23</v>
@@ -6580,7 +6586,7 @@
         <v>24</v>
       </c>
       <c r="L113" s="3" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="M113" s="2" t="s">
         <v>25</v>
@@ -6594,31 +6600,29 @@
     </row>
     <row r="114" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A114" s="2" t="s">
-        <v>119</v>
+        <v>125</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>120</v>
+        <v>126</v>
       </c>
       <c r="C114" s="2" t="s">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="D114" s="3" t="n">
-        <v>31</v>
+        <v>70</v>
       </c>
       <c r="E114" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F114" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="G114" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="G114" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="H114" s="2" t="s">
-        <v>21</v>
-      </c>
+      <c r="H114" s="2"/>
       <c r="I114" s="2" t="s">
-        <v>70</v>
+        <v>113</v>
       </c>
       <c r="J114" s="2" t="s">
         <v>23</v>
@@ -6627,7 +6631,7 @@
         <v>24</v>
       </c>
       <c r="L114" s="3" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="M114" s="2" t="s">
         <v>25</v>
@@ -6641,31 +6645,29 @@
     </row>
     <row r="115" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A115" s="2" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="C115" s="2" t="s">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="D115" s="3" t="n">
-        <v>30</v>
+        <v>70</v>
       </c>
       <c r="E115" s="2" t="s">
-        <v>18</v>
+        <v>33</v>
       </c>
       <c r="F115" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="G115" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="G115" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="H115" s="2" t="s">
-        <v>21</v>
-      </c>
+      <c r="H115" s="2"/>
       <c r="I115" s="2" t="s">
-        <v>104</v>
+        <v>113</v>
       </c>
       <c r="J115" s="2" t="s">
         <v>23</v>
@@ -6674,7 +6676,7 @@
         <v>24</v>
       </c>
       <c r="L115" s="3" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M115" s="2" t="s">
         <v>25</v>
@@ -6688,19 +6690,19 @@
     </row>
     <row r="116" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A116" s="2" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="C116" s="2" t="s">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="D116" s="3" t="n">
-        <v>30</v>
+        <v>70</v>
       </c>
       <c r="E116" s="2" t="s">
-        <v>28</v>
+        <v>52</v>
       </c>
       <c r="F116" s="2" t="s">
         <v>36</v>
@@ -6708,11 +6710,9 @@
       <c r="G116" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="H116" s="2" t="s">
-        <v>21</v>
-      </c>
+      <c r="H116" s="2"/>
       <c r="I116" s="2" t="s">
-        <v>104</v>
+        <v>113</v>
       </c>
       <c r="J116" s="2" t="s">
         <v>23</v>
@@ -6721,7 +6721,7 @@
         <v>24</v>
       </c>
       <c r="L116" s="3" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="M116" s="2" t="s">
         <v>25</v>
@@ -6735,13 +6735,13 @@
     </row>
     <row r="117" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A117" s="2" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>124</v>
+        <v>85</v>
       </c>
       <c r="C117" s="2" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="D117" s="3" t="n">
         <v>70</v>
@@ -6750,14 +6750,14 @@
         <v>30</v>
       </c>
       <c r="F117" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G117" s="2" t="s">
-        <v>36</v>
+        <v>55</v>
       </c>
       <c r="H117" s="2"/>
       <c r="I117" s="2" t="s">
-        <v>70</v>
+        <v>113</v>
       </c>
       <c r="J117" s="2" t="s">
         <v>23</v>
@@ -6780,19 +6780,19 @@
     </row>
     <row r="118" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A118" s="2" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>124</v>
+        <v>85</v>
       </c>
       <c r="C118" s="2" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="D118" s="3" t="n">
         <v>70</v>
       </c>
       <c r="E118" s="2" t="s">
-        <v>33</v>
+        <v>18</v>
       </c>
       <c r="F118" s="2" t="s">
         <v>35</v>
@@ -6802,7 +6802,7 @@
       </c>
       <c r="H118" s="2"/>
       <c r="I118" s="2" t="s">
-        <v>70</v>
+        <v>113</v>
       </c>
       <c r="J118" s="2" t="s">
         <v>23</v>
@@ -6811,7 +6811,7 @@
         <v>24</v>
       </c>
       <c r="L118" s="3" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M118" s="2" t="s">
         <v>25</v>
@@ -6825,29 +6825,29 @@
     </row>
     <row r="119" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A119" s="2" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>124</v>
+        <v>85</v>
       </c>
       <c r="C119" s="2" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="D119" s="3" t="n">
         <v>70</v>
       </c>
       <c r="E119" s="2" t="s">
-        <v>52</v>
+        <v>28</v>
       </c>
       <c r="F119" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="G119" s="2" t="s">
         <v>36</v>
-      </c>
-      <c r="G119" s="2" t="s">
-        <v>55</v>
       </c>
       <c r="H119" s="2"/>
       <c r="I119" s="2" t="s">
-        <v>70</v>
+        <v>113</v>
       </c>
       <c r="J119" s="2" t="s">
         <v>23</v>
@@ -6856,7 +6856,7 @@
         <v>24</v>
       </c>
       <c r="L119" s="3" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="M119" s="2" t="s">
         <v>25</v>
@@ -6870,29 +6870,31 @@
     </row>
     <row r="120" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A120" s="2" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>84</v>
+        <v>129</v>
       </c>
       <c r="C120" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D120" s="3" t="n">
-        <v>70</v>
+        <v>40</v>
       </c>
       <c r="E120" s="2" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="F120" s="2" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="G120" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="H120" s="2"/>
+        <v>42</v>
+      </c>
+      <c r="H120" s="2" t="s">
+        <v>21</v>
+      </c>
       <c r="I120" s="2" t="s">
-        <v>70</v>
+        <v>95</v>
       </c>
       <c r="J120" s="2" t="s">
         <v>23</v>
@@ -6901,7 +6903,7 @@
         <v>24</v>
       </c>
       <c r="L120" s="3" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M120" s="2" t="s">
         <v>25</v>
@@ -6915,29 +6917,31 @@
     </row>
     <row r="121" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A121" s="2" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>84</v>
+        <v>129</v>
       </c>
       <c r="C121" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D121" s="3" t="n">
-        <v>70</v>
+        <v>40</v>
       </c>
       <c r="E121" s="2" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="F121" s="2" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="G121" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="H121" s="2"/>
+        <v>44</v>
+      </c>
+      <c r="H121" s="2" t="s">
+        <v>130</v>
+      </c>
       <c r="I121" s="2" t="s">
-        <v>70</v>
+        <v>95</v>
       </c>
       <c r="J121" s="2" t="s">
         <v>23</v>
@@ -6946,7 +6950,7 @@
         <v>24</v>
       </c>
       <c r="L121" s="3" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="M121" s="2" t="s">
         <v>25</v>
@@ -6960,29 +6964,31 @@
     </row>
     <row r="122" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A122" s="2" t="s">
-        <v>125</v>
+        <v>131</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>84</v>
+        <v>132</v>
       </c>
       <c r="C122" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D122" s="3" t="n">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="E122" s="2" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="F122" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G122" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="H122" s="2"/>
+        <v>55</v>
+      </c>
+      <c r="H122" s="2" t="s">
+        <v>21</v>
+      </c>
       <c r="I122" s="2" t="s">
-        <v>70</v>
+        <v>56</v>
       </c>
       <c r="J122" s="2" t="s">
         <v>23</v>
@@ -6991,7 +6997,7 @@
         <v>24</v>
       </c>
       <c r="L122" s="3" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="M122" s="2" t="s">
         <v>25</v>
@@ -7005,31 +7011,31 @@
     </row>
     <row r="123" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A123" s="2" t="s">
-        <v>126</v>
+        <v>131</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>127</v>
+        <v>132</v>
       </c>
       <c r="C123" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D123" s="3" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="E123" s="2" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="F123" s="2" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="G123" s="2" t="s">
-        <v>42</v>
+        <v>55</v>
       </c>
       <c r="H123" s="2" t="s">
-        <v>21</v>
+        <v>130</v>
       </c>
       <c r="I123" s="2" t="s">
-        <v>94</v>
+        <v>56</v>
       </c>
       <c r="J123" s="2" t="s">
         <v>23</v>
@@ -7038,7 +7044,7 @@
         <v>24</v>
       </c>
       <c r="L123" s="3" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="M123" s="2" t="s">
         <v>25</v>
@@ -7052,19 +7058,19 @@
     </row>
     <row r="124" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A124" s="2" t="s">
-        <v>126</v>
+        <v>131</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>127</v>
+        <v>132</v>
       </c>
       <c r="C124" s="2" t="s">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="D124" s="3" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="E124" s="2" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="F124" s="2" t="s">
         <v>42</v>
@@ -7073,10 +7079,10 @@
         <v>44</v>
       </c>
       <c r="H124" s="2" t="s">
-        <v>128</v>
+        <v>21</v>
       </c>
       <c r="I124" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="J124" s="2" t="s">
         <v>23</v>
@@ -7085,7 +7091,7 @@
         <v>24</v>
       </c>
       <c r="L124" s="3" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="M124" s="2" t="s">
         <v>25</v>
@@ -7099,31 +7105,31 @@
     </row>
     <row r="125" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A125" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="C125" s="2" t="s">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="D125" s="3" t="n">
         <v>50</v>
       </c>
       <c r="E125" s="2" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="F125" s="2" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="G125" s="2" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="H125" s="2" t="s">
-        <v>21</v>
+        <v>130</v>
       </c>
       <c r="I125" s="2" t="s">
-        <v>56</v>
+        <v>95</v>
       </c>
       <c r="J125" s="2" t="s">
         <v>23</v>
@@ -7132,7 +7138,7 @@
         <v>24</v>
       </c>
       <c r="L125" s="3" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="M125" s="2" t="s">
         <v>25</v>
@@ -7146,10 +7152,10 @@
     </row>
     <row r="126" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A126" s="2" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="C126" s="2" t="s">
         <v>17</v>
@@ -7158,16 +7164,16 @@
         <v>50</v>
       </c>
       <c r="E126" s="2" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="F126" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="G126" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="G126" s="2" t="s">
-        <v>55</v>
-      </c>
       <c r="H126" s="2" t="s">
-        <v>128</v>
+        <v>21</v>
       </c>
       <c r="I126" s="2" t="s">
         <v>56</v>
@@ -7179,7 +7185,7 @@
         <v>24</v>
       </c>
       <c r="L126" s="3" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="M126" s="2" t="s">
         <v>25</v>
@@ -7193,31 +7199,31 @@
     </row>
     <row r="127" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A127" s="2" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="C127" s="2" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="D127" s="3" t="n">
         <v>50</v>
       </c>
       <c r="E127" s="2" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="F127" s="2" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="G127" s="2" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="H127" s="2" t="s">
         <v>21</v>
       </c>
       <c r="I127" s="2" t="s">
-        <v>94</v>
+        <v>56</v>
       </c>
       <c r="J127" s="2" t="s">
         <v>23</v>
@@ -7226,7 +7232,7 @@
         <v>24</v>
       </c>
       <c r="L127" s="3" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="M127" s="2" t="s">
         <v>25</v>
@@ -7240,19 +7246,19 @@
     </row>
     <row r="128" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A128" s="2" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="C128" s="2" t="s">
         <v>29</v>
       </c>
       <c r="D128" s="3" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="E128" s="2" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="F128" s="2" t="s">
         <v>41</v>
@@ -7261,10 +7267,10 @@
         <v>42</v>
       </c>
       <c r="H128" s="2" t="s">
-        <v>128</v>
+        <v>21</v>
       </c>
       <c r="I128" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="J128" s="2" t="s">
         <v>23</v>
@@ -7273,7 +7279,7 @@
         <v>24</v>
       </c>
       <c r="L128" s="3" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="M128" s="2" t="s">
         <v>25</v>
@@ -7287,31 +7293,31 @@
     </row>
     <row r="129" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A129" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="C129" s="2" t="s">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="D129" s="3" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="E129" s="2" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="F129" s="2" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="G129" s="2" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="H129" s="2" t="s">
         <v>21</v>
       </c>
       <c r="I129" s="2" t="s">
-        <v>56</v>
+        <v>95</v>
       </c>
       <c r="J129" s="2" t="s">
         <v>23</v>
@@ -7320,7 +7326,7 @@
         <v>24</v>
       </c>
       <c r="L129" s="3" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="M129" s="2" t="s">
         <v>25</v>
@@ -7334,10 +7340,10 @@
     </row>
     <row r="130" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A130" s="2" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="C130" s="2" t="s">
         <v>17</v>
@@ -7346,7 +7352,7 @@
         <v>50</v>
       </c>
       <c r="E130" s="2" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="F130" s="2" t="s">
         <v>35</v>
@@ -7367,7 +7373,7 @@
         <v>24</v>
       </c>
       <c r="L130" s="3" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="M130" s="2" t="s">
         <v>25</v>
@@ -7381,31 +7387,31 @@
     </row>
     <row r="131" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A131" s="2" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="C131" s="2" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="D131" s="3" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="E131" s="2" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="F131" s="2" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="G131" s="2" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="H131" s="2" t="s">
         <v>21</v>
       </c>
       <c r="I131" s="2" t="s">
-        <v>94</v>
+        <v>56</v>
       </c>
       <c r="J131" s="2" t="s">
         <v>23</v>
@@ -7414,7 +7420,7 @@
         <v>24</v>
       </c>
       <c r="L131" s="3" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="M131" s="2" t="s">
         <v>25</v>
@@ -7428,19 +7434,19 @@
     </row>
     <row r="132" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A132" s="2" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="C132" s="2" t="s">
         <v>29</v>
       </c>
       <c r="D132" s="3" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="E132" s="2" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="F132" s="2" t="s">
         <v>42</v>
@@ -7452,7 +7458,7 @@
         <v>21</v>
       </c>
       <c r="I132" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="J132" s="2" t="s">
         <v>23</v>
@@ -7461,7 +7467,7 @@
         <v>24</v>
       </c>
       <c r="L132" s="3" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="M132" s="2" t="s">
         <v>25</v>
@@ -7475,31 +7481,31 @@
     </row>
     <row r="133" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A133" s="2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="C133" s="2" t="s">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="D133" s="3" t="n">
         <v>50</v>
       </c>
       <c r="E133" s="2" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="F133" s="2" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="G133" s="2" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="H133" s="2" t="s">
         <v>21</v>
       </c>
       <c r="I133" s="2" t="s">
-        <v>56</v>
+        <v>95</v>
       </c>
       <c r="J133" s="2" t="s">
         <v>23</v>
@@ -7508,7 +7514,7 @@
         <v>24</v>
       </c>
       <c r="L133" s="3" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="M133" s="2" t="s">
         <v>25</v>
@@ -7522,28 +7528,28 @@
     </row>
     <row r="134" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A134" s="2" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="C134" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D134" s="3" t="n">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="E134" s="2" t="s">
-        <v>28</v>
+        <v>52</v>
       </c>
       <c r="F134" s="2" t="s">
         <v>35</v>
       </c>
       <c r="G134" s="2" t="s">
-        <v>36</v>
+        <v>55</v>
       </c>
       <c r="H134" s="2" t="s">
-        <v>21</v>
+        <v>130</v>
       </c>
       <c r="I134" s="2" t="s">
         <v>56</v>
@@ -7555,7 +7561,7 @@
         <v>24</v>
       </c>
       <c r="L134" s="3" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="M134" s="2" t="s">
         <v>25</v>
@@ -7569,31 +7575,31 @@
     </row>
     <row r="135" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A135" s="2" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="C135" s="2" t="s">
         <v>29</v>
       </c>
       <c r="D135" s="3" t="n">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="E135" s="2" t="s">
-        <v>18</v>
+        <v>52</v>
       </c>
       <c r="F135" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G135" s="2" t="s">
         <v>44</v>
       </c>
       <c r="H135" s="2" t="s">
-        <v>21</v>
+        <v>130</v>
       </c>
       <c r="I135" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="J135" s="2" t="s">
         <v>23</v>
@@ -7602,7 +7608,7 @@
         <v>24</v>
       </c>
       <c r="L135" s="3" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="M135" s="2" t="s">
         <v>25</v>
@@ -7616,31 +7622,31 @@
     </row>
     <row r="136" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A136" s="2" t="s">
-        <v>133</v>
+        <v>139</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>134</v>
+        <v>140</v>
       </c>
       <c r="C136" s="2" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="D136" s="3" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="E136" s="2" t="s">
-        <v>28</v>
+        <v>52</v>
       </c>
       <c r="F136" s="2" t="s">
         <v>41</v>
       </c>
       <c r="G136" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="H136" s="2" t="s">
         <v>21</v>
       </c>
       <c r="I136" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="J136" s="2" t="s">
         <v>23</v>
@@ -7649,7 +7655,7 @@
         <v>24</v>
       </c>
       <c r="L136" s="3" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="M136" s="2" t="s">
         <v>25</v>
@@ -7663,31 +7669,31 @@
     </row>
     <row r="137" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A137" s="2" t="s">
-        <v>135</v>
+        <v>141</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>136</v>
+        <v>142</v>
       </c>
       <c r="C137" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D137" s="3" t="n">
-        <v>45</v>
+        <v>79</v>
       </c>
       <c r="E137" s="2" t="s">
-        <v>52</v>
+        <v>30</v>
       </c>
       <c r="F137" s="2" t="s">
-        <v>35</v>
+        <v>19</v>
       </c>
       <c r="G137" s="2" t="s">
-        <v>55</v>
+        <v>20</v>
       </c>
       <c r="H137" s="2" t="s">
-        <v>128</v>
+        <v>21</v>
       </c>
       <c r="I137" s="2" t="s">
-        <v>56</v>
+        <v>39</v>
       </c>
       <c r="J137" s="2" t="s">
         <v>23</v>
@@ -7696,7 +7702,7 @@
         <v>24</v>
       </c>
       <c r="L137" s="3" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="M137" s="2" t="s">
         <v>25</v>
@@ -7710,31 +7716,31 @@
     </row>
     <row r="138" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A138" s="2" t="s">
-        <v>135</v>
+        <v>141</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>136</v>
+        <v>142</v>
       </c>
       <c r="C138" s="2" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="D138" s="3" t="n">
-        <v>45</v>
+        <v>79</v>
       </c>
       <c r="E138" s="2" t="s">
-        <v>52</v>
+        <v>33</v>
       </c>
       <c r="F138" s="2" t="s">
-        <v>41</v>
+        <v>19</v>
       </c>
       <c r="G138" s="2" t="s">
-        <v>44</v>
+        <v>20</v>
       </c>
       <c r="H138" s="2" t="s">
-        <v>128</v>
+        <v>21</v>
       </c>
       <c r="I138" s="2" t="s">
-        <v>94</v>
+        <v>39</v>
       </c>
       <c r="J138" s="2" t="s">
         <v>23</v>
@@ -7743,7 +7749,7 @@
         <v>24</v>
       </c>
       <c r="L138" s="3" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="M138" s="2" t="s">
         <v>25</v>
@@ -7757,31 +7763,31 @@
     </row>
     <row r="139" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A139" s="2" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="C139" s="2" t="s">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="D139" s="3" t="n">
-        <v>40</v>
+        <v>55</v>
       </c>
       <c r="E139" s="2" t="s">
-        <v>52</v>
+        <v>30</v>
       </c>
       <c r="F139" s="2" t="s">
-        <v>41</v>
+        <v>19</v>
       </c>
       <c r="G139" s="2" t="s">
-        <v>44</v>
+        <v>20</v>
       </c>
       <c r="H139" s="2" t="s">
         <v>21</v>
       </c>
       <c r="I139" s="2" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="J139" s="2" t="s">
         <v>23</v>
@@ -7790,7 +7796,7 @@
         <v>24</v>
       </c>
       <c r="L139" s="3" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="M139" s="2" t="s">
         <v>25</v>
@@ -7804,19 +7810,19 @@
     </row>
     <row r="140" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A140" s="2" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="C140" s="2" t="s">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="D140" s="3" t="n">
-        <v>79</v>
+        <v>55</v>
       </c>
       <c r="E140" s="2" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="F140" s="2" t="s">
         <v>19</v>
@@ -7828,7 +7834,7 @@
         <v>21</v>
       </c>
       <c r="I140" s="2" t="s">
-        <v>39</v>
+        <v>86</v>
       </c>
       <c r="J140" s="2" t="s">
         <v>23</v>
@@ -7837,7 +7843,7 @@
         <v>24</v>
       </c>
       <c r="L140" s="3" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M140" s="2" t="s">
         <v>25</v>
@@ -7851,31 +7857,31 @@
     </row>
     <row r="141" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A141" s="2" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="C141" s="2" t="s">
-        <v>17</v>
+        <v>34</v>
       </c>
       <c r="D141" s="3" t="n">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="E141" s="2" t="s">
-        <v>33</v>
+        <v>18</v>
       </c>
       <c r="F141" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G141" s="2" t="s">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="H141" s="2" t="s">
         <v>21</v>
       </c>
       <c r="I141" s="2" t="s">
-        <v>39</v>
+        <v>22</v>
       </c>
       <c r="J141" s="2" t="s">
         <v>23</v>
@@ -7884,7 +7890,7 @@
         <v>24</v>
       </c>
       <c r="L141" s="3" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M141" s="2" t="s">
         <v>25</v>
@@ -7898,31 +7904,31 @@
     </row>
     <row r="142" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A142" s="2" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="C142" s="2" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="D142" s="3" t="n">
-        <v>55</v>
+        <v>80</v>
       </c>
       <c r="E142" s="2" t="s">
-        <v>30</v>
+        <v>52</v>
       </c>
       <c r="F142" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G142" s="2" t="s">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="H142" s="2" t="s">
         <v>21</v>
       </c>
       <c r="I142" s="2" t="s">
-        <v>85</v>
+        <v>22</v>
       </c>
       <c r="J142" s="2" t="s">
         <v>23</v>
@@ -7931,7 +7937,7 @@
         <v>24</v>
       </c>
       <c r="L142" s="3" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="M142" s="2" t="s">
         <v>25</v>
@@ -7945,31 +7951,31 @@
     </row>
     <row r="143" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A143" s="2" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="C143" s="2" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="D143" s="3" t="n">
-        <v>55</v>
+        <v>100</v>
       </c>
       <c r="E143" s="2" t="s">
         <v>33</v>
       </c>
       <c r="F143" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G143" s="2" t="s">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="H143" s="2" t="s">
         <v>21</v>
       </c>
       <c r="I143" s="2" t="s">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="J143" s="2" t="s">
         <v>23</v>
@@ -7992,19 +7998,19 @@
     </row>
     <row r="144" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A144" s="2" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="C144" s="2" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="D144" s="3" t="n">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="E144" s="2" t="s">
-        <v>18</v>
+        <v>52</v>
       </c>
       <c r="F144" s="2" t="s">
         <v>20</v>
@@ -8016,7 +8022,7 @@
         <v>21</v>
       </c>
       <c r="I144" s="2" t="s">
-        <v>22</v>
+        <v>75</v>
       </c>
       <c r="J144" s="2" t="s">
         <v>23</v>
@@ -8025,7 +8031,7 @@
         <v>24</v>
       </c>
       <c r="L144" s="3" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="M144" s="2" t="s">
         <v>25</v>
@@ -8039,19 +8045,19 @@
     </row>
     <row r="145" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A145" s="2" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="B145" s="2" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="C145" s="2" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="D145" s="3" t="n">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="E145" s="2" t="s">
-        <v>52</v>
+        <v>33</v>
       </c>
       <c r="F145" s="2" t="s">
         <v>20</v>
@@ -8063,7 +8069,7 @@
         <v>21</v>
       </c>
       <c r="I145" s="2" t="s">
-        <v>22</v>
+        <v>75</v>
       </c>
       <c r="J145" s="2" t="s">
         <v>23</v>
@@ -8072,7 +8078,7 @@
         <v>24</v>
       </c>
       <c r="L145" s="3" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="M145" s="2" t="s">
         <v>25</v>
@@ -8086,19 +8092,19 @@
     </row>
     <row r="146" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A146" s="2" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="B146" s="2" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="C146" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="D146" s="3" t="n">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="E146" s="2" t="s">
-        <v>33</v>
+        <v>52</v>
       </c>
       <c r="F146" s="2" t="s">
         <v>20</v>
@@ -8110,7 +8116,7 @@
         <v>21</v>
       </c>
       <c r="I146" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="J146" s="2" t="s">
         <v>23</v>
@@ -8119,7 +8125,7 @@
         <v>24</v>
       </c>
       <c r="L146" s="3" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="M146" s="2" t="s">
         <v>25</v>
@@ -8133,31 +8139,31 @@
     </row>
     <row r="147" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A147" s="2" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="B147" s="2" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="C147" s="2" t="s">
-        <v>38</v>
+        <v>143</v>
       </c>
       <c r="D147" s="3" t="n">
-        <v>100</v>
+        <v>60</v>
       </c>
       <c r="E147" s="2" t="s">
-        <v>52</v>
+        <v>18</v>
       </c>
       <c r="F147" s="2" t="s">
-        <v>20</v>
+        <v>144</v>
       </c>
       <c r="G147" s="2" t="s">
-        <v>31</v>
+        <v>145</v>
       </c>
       <c r="H147" s="2" t="s">
         <v>21</v>
       </c>
       <c r="I147" s="2" t="s">
-        <v>74</v>
+        <v>146</v>
       </c>
       <c r="J147" s="2" t="s">
         <v>23</v>
@@ -8166,7 +8172,7 @@
         <v>24</v>
       </c>
       <c r="L147" s="3" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="M147" s="2" t="s">
         <v>25</v>
@@ -8180,31 +8186,31 @@
     </row>
     <row r="148" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A148" s="2" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="B148" s="2" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="C148" s="2" t="s">
-        <v>40</v>
+        <v>143</v>
       </c>
       <c r="D148" s="3" t="n">
-        <v>90</v>
+        <v>60</v>
       </c>
       <c r="E148" s="2" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="F148" s="2" t="s">
-        <v>20</v>
+        <v>144</v>
       </c>
       <c r="G148" s="2" t="s">
-        <v>31</v>
+        <v>145</v>
       </c>
       <c r="H148" s="2" t="s">
         <v>21</v>
       </c>
       <c r="I148" s="2" t="s">
-        <v>74</v>
+        <v>146</v>
       </c>
       <c r="J148" s="2" t="s">
         <v>23</v>
@@ -8213,7 +8219,7 @@
         <v>24</v>
       </c>
       <c r="L148" s="3" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="M148" s="2" t="s">
         <v>25</v>
@@ -8227,31 +8233,31 @@
     </row>
     <row r="149" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A149" s="2" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="B149" s="2" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="C149" s="2" t="s">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="D149" s="3" t="n">
-        <v>90</v>
+        <v>20</v>
       </c>
       <c r="E149" s="2" t="s">
-        <v>52</v>
+        <v>30</v>
       </c>
       <c r="F149" s="2" t="s">
-        <v>20</v>
+        <v>35</v>
       </c>
       <c r="G149" s="2" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="H149" s="2" t="s">
         <v>21</v>
       </c>
       <c r="I149" s="2" t="s">
-        <v>74</v>
+        <v>87</v>
       </c>
       <c r="J149" s="2" t="s">
         <v>23</v>
@@ -8260,7 +8266,7 @@
         <v>24</v>
       </c>
       <c r="L149" s="3" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="M149" s="2" t="s">
         <v>25</v>
@@ -8274,31 +8280,31 @@
     </row>
     <row r="150" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A150" s="2" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="B150" s="2" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="C150" s="2" t="s">
-        <v>141</v>
+        <v>50</v>
       </c>
       <c r="D150" s="3" t="n">
-        <v>60</v>
+        <v>20</v>
       </c>
       <c r="E150" s="2" t="s">
-        <v>18</v>
+        <v>33</v>
       </c>
       <c r="F150" s="2" t="s">
-        <v>142</v>
+        <v>35</v>
       </c>
       <c r="G150" s="2" t="s">
-        <v>143</v>
+        <v>36</v>
       </c>
       <c r="H150" s="2" t="s">
         <v>21</v>
       </c>
       <c r="I150" s="2" t="s">
-        <v>144</v>
+        <v>87</v>
       </c>
       <c r="J150" s="2" t="s">
         <v>23</v>
@@ -8307,7 +8313,7 @@
         <v>24</v>
       </c>
       <c r="L150" s="3" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M150" s="2" t="s">
         <v>25</v>
@@ -8321,31 +8327,31 @@
     </row>
     <row r="151" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A151" s="2" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="B151" s="2" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="C151" s="2" t="s">
-        <v>141</v>
+        <v>64</v>
       </c>
       <c r="D151" s="3" t="n">
-        <v>60</v>
+        <v>35</v>
       </c>
       <c r="E151" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F151" s="2" t="s">
-        <v>142</v>
+        <v>35</v>
       </c>
       <c r="G151" s="2" t="s">
-        <v>143</v>
+        <v>36</v>
       </c>
       <c r="H151" s="2" t="s">
         <v>21</v>
       </c>
       <c r="I151" s="2" t="s">
-        <v>144</v>
+        <v>87</v>
       </c>
       <c r="J151" s="2" t="s">
         <v>23</v>
@@ -8354,7 +8360,7 @@
         <v>24</v>
       </c>
       <c r="L151" s="3" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="M151" s="2" t="s">
         <v>25</v>
@@ -8368,19 +8374,19 @@
     </row>
     <row r="152" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A152" s="2" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="B152" s="2" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="C152" s="2" t="s">
-        <v>50</v>
+        <v>64</v>
       </c>
       <c r="D152" s="3" t="n">
-        <v>20</v>
+        <v>35</v>
       </c>
       <c r="E152" s="2" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="F152" s="2" t="s">
         <v>35</v>
@@ -8392,7 +8398,7 @@
         <v>21</v>
       </c>
       <c r="I152" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="J152" s="2" t="s">
         <v>23</v>
@@ -8401,7 +8407,7 @@
         <v>24</v>
       </c>
       <c r="L152" s="3" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M152" s="2" t="s">
         <v>25</v>
@@ -8415,31 +8421,31 @@
     </row>
     <row r="153" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A153" s="2" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="B153" s="2" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="C153" s="2" t="s">
-        <v>50</v>
+        <v>147</v>
       </c>
       <c r="D153" s="3" t="n">
-        <v>20</v>
+        <v>85</v>
       </c>
       <c r="E153" s="2" t="s">
-        <v>33</v>
+        <v>18</v>
       </c>
       <c r="F153" s="2" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="G153" s="2" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="H153" s="2" t="s">
         <v>21</v>
       </c>
       <c r="I153" s="2" t="s">
-        <v>88</v>
+        <v>148</v>
       </c>
       <c r="J153" s="2" t="s">
         <v>23</v>
@@ -8448,7 +8454,7 @@
         <v>24</v>
       </c>
       <c r="L153" s="3" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M153" s="2" t="s">
         <v>25</v>
@@ -8462,31 +8468,31 @@
     </row>
     <row r="154" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A154" s="2" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="B154" s="2" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="C154" s="2" t="s">
-        <v>64</v>
+        <v>147</v>
       </c>
       <c r="D154" s="3" t="n">
-        <v>35</v>
+        <v>85</v>
       </c>
       <c r="E154" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F154" s="2" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="G154" s="2" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="H154" s="2" t="s">
         <v>21</v>
       </c>
       <c r="I154" s="2" t="s">
-        <v>86</v>
+        <v>148</v>
       </c>
       <c r="J154" s="2" t="s">
         <v>23</v>
@@ -8495,7 +8501,7 @@
         <v>24</v>
       </c>
       <c r="L154" s="3" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="M154" s="2" t="s">
         <v>25</v>
@@ -8509,31 +8515,31 @@
     </row>
     <row r="155" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A155" s="2" t="s">
-        <v>139</v>
+        <v>149</v>
       </c>
       <c r="B155" s="2" t="s">
-        <v>140</v>
+        <v>150</v>
       </c>
       <c r="C155" s="2" t="s">
-        <v>64</v>
+        <v>17</v>
       </c>
       <c r="D155" s="3" t="n">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="E155" s="2" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="F155" s="2" t="s">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="G155" s="2" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="H155" s="2" t="s">
         <v>21</v>
       </c>
       <c r="I155" s="2" t="s">
-        <v>86</v>
+        <v>22</v>
       </c>
       <c r="J155" s="2" t="s">
         <v>23</v>
@@ -8542,7 +8548,7 @@
         <v>24</v>
       </c>
       <c r="L155" s="3" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="M155" s="2" t="s">
         <v>25</v>
@@ -8556,31 +8562,31 @@
     </row>
     <row r="156" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A156" s="2" t="s">
-        <v>139</v>
+        <v>149</v>
       </c>
       <c r="B156" s="2" t="s">
-        <v>140</v>
+        <v>150</v>
       </c>
       <c r="C156" s="2" t="s">
-        <v>145</v>
+        <v>17</v>
       </c>
       <c r="D156" s="3" t="n">
-        <v>85</v>
+        <v>40</v>
       </c>
       <c r="E156" s="2" t="s">
-        <v>18</v>
+        <v>33</v>
       </c>
       <c r="F156" s="2" t="s">
-        <v>42</v>
+        <v>20</v>
       </c>
       <c r="G156" s="2" t="s">
-        <v>44</v>
+        <v>31</v>
       </c>
       <c r="H156" s="2" t="s">
         <v>21</v>
       </c>
       <c r="I156" s="2" t="s">
-        <v>146</v>
+        <v>22</v>
       </c>
       <c r="J156" s="2" t="s">
         <v>23</v>
@@ -8589,7 +8595,7 @@
         <v>24</v>
       </c>
       <c r="L156" s="3" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M156" s="2" t="s">
         <v>25</v>
@@ -8603,31 +8609,31 @@
     </row>
     <row r="157" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A157" s="2" t="s">
-        <v>139</v>
+        <v>149</v>
       </c>
       <c r="B157" s="2" t="s">
-        <v>140</v>
+        <v>150</v>
       </c>
       <c r="C157" s="2" t="s">
-        <v>145</v>
+        <v>29</v>
       </c>
       <c r="D157" s="3" t="n">
-        <v>85</v>
+        <v>50</v>
       </c>
       <c r="E157" s="2" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="F157" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="G157" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="G157" s="2" t="s">
-        <v>44</v>
-      </c>
       <c r="H157" s="2" t="s">
         <v>21</v>
       </c>
       <c r="I157" s="2" t="s">
-        <v>146</v>
+        <v>51</v>
       </c>
       <c r="J157" s="2" t="s">
         <v>23</v>
@@ -8636,7 +8642,7 @@
         <v>24</v>
       </c>
       <c r="L157" s="3" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="M157" s="2" t="s">
         <v>25</v>
@@ -8650,31 +8656,31 @@
     </row>
     <row r="158" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A158" s="2" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="B158" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="C158" s="2" t="s">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="D158" s="3" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="E158" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F158" s="2" t="s">
-        <v>20</v>
+        <v>41</v>
       </c>
       <c r="G158" s="2" t="s">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="H158" s="2" t="s">
         <v>21</v>
       </c>
       <c r="I158" s="2" t="s">
-        <v>22</v>
+        <v>51</v>
       </c>
       <c r="J158" s="2" t="s">
         <v>23</v>
@@ -8683,7 +8689,7 @@
         <v>24</v>
       </c>
       <c r="L158" s="3" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="M158" s="2" t="s">
         <v>25</v>
@@ -8697,31 +8703,31 @@
     </row>
     <row r="159" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A159" s="2" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="B159" s="2" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="C159" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D159" s="3" t="n">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="E159" s="2" t="s">
         <v>33</v>
       </c>
       <c r="F159" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G159" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="G159" s="2" t="s">
-        <v>31</v>
-      </c>
       <c r="H159" s="2" t="s">
         <v>21</v>
       </c>
       <c r="I159" s="2" t="s">
-        <v>22</v>
+        <v>153</v>
       </c>
       <c r="J159" s="2" t="s">
         <v>23</v>
@@ -8744,31 +8750,31 @@
     </row>
     <row r="160" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A160" s="2" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="B160" s="2" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="C160" s="2" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="D160" s="3" t="n">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="E160" s="2" t="s">
-        <v>18</v>
+        <v>52</v>
       </c>
       <c r="F160" s="2" t="s">
-        <v>41</v>
+        <v>19</v>
       </c>
       <c r="G160" s="2" t="s">
-        <v>42</v>
+        <v>20</v>
       </c>
       <c r="H160" s="2" t="s">
         <v>21</v>
       </c>
       <c r="I160" s="2" t="s">
-        <v>51</v>
+        <v>153</v>
       </c>
       <c r="J160" s="2" t="s">
         <v>23</v>
@@ -8777,7 +8783,7 @@
         <v>24</v>
       </c>
       <c r="L160" s="3" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="M160" s="2" t="s">
         <v>25</v>
@@ -8791,31 +8797,31 @@
     </row>
     <row r="161" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A161" s="2" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="B161" s="2" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="C161" s="2" t="s">
         <v>29</v>
       </c>
       <c r="D161" s="3" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="E161" s="2" t="s">
         <v>28</v>
       </c>
       <c r="F161" s="2" t="s">
-        <v>41</v>
+        <v>19</v>
       </c>
       <c r="G161" s="2" t="s">
-        <v>42</v>
+        <v>20</v>
       </c>
       <c r="H161" s="2" t="s">
-        <v>21</v>
+        <v>154</v>
       </c>
       <c r="I161" s="2" t="s">
-        <v>51</v>
+        <v>155</v>
       </c>
       <c r="J161" s="2" t="s">
         <v>23</v>
@@ -8838,31 +8844,31 @@
     </row>
     <row r="162" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A162" s="2" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="B162" s="2" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="C162" s="2" t="s">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="D162" s="3" t="n">
-        <v>42</v>
+        <v>55</v>
       </c>
       <c r="E162" s="2" t="s">
-        <v>33</v>
+        <v>52</v>
       </c>
       <c r="F162" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G162" s="2" t="s">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="H162" s="2" t="s">
-        <v>21</v>
+        <v>154</v>
       </c>
       <c r="I162" s="2" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="J162" s="2" t="s">
         <v>23</v>
@@ -8871,7 +8877,7 @@
         <v>24</v>
       </c>
       <c r="L162" s="3" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="M162" s="2" t="s">
         <v>25</v>
@@ -8885,31 +8891,31 @@
     </row>
     <row r="163" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A163" s="2" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="B163" s="2" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="C163" s="2" t="s">
-        <v>17</v>
+        <v>34</v>
       </c>
       <c r="D163" s="3" t="n">
-        <v>42</v>
+        <v>70</v>
       </c>
       <c r="E163" s="2" t="s">
-        <v>52</v>
+        <v>18</v>
       </c>
       <c r="F163" s="2" t="s">
         <v>19</v>
       </c>
       <c r="G163" s="2" t="s">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="H163" s="2" t="s">
         <v>21</v>
       </c>
       <c r="I163" s="2" t="s">
-        <v>151</v>
+        <v>156</v>
       </c>
       <c r="J163" s="2" t="s">
         <v>23</v>
@@ -8918,7 +8924,7 @@
         <v>24</v>
       </c>
       <c r="L163" s="3" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="M163" s="2" t="s">
         <v>25</v>
@@ -8932,31 +8938,31 @@
     </row>
     <row r="164" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A164" s="2" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="B164" s="2" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="C164" s="2" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="D164" s="3" t="n">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="E164" s="2" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="F164" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G164" s="2" t="s">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="H164" s="2" t="s">
-        <v>152</v>
+        <v>21</v>
       </c>
       <c r="I164" s="2" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="J164" s="2" t="s">
         <v>23</v>
@@ -8965,7 +8971,7 @@
         <v>24</v>
       </c>
       <c r="L164" s="3" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="M164" s="2" t="s">
         <v>25</v>
@@ -8979,31 +8985,31 @@
     </row>
     <row r="165" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A165" s="2" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="B165" s="2" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="C165" s="2" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="D165" s="3" t="n">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="E165" s="2" t="s">
-        <v>52</v>
+        <v>28</v>
       </c>
       <c r="F165" s="2" t="s">
-        <v>20</v>
+        <v>158</v>
       </c>
       <c r="G165" s="2" t="s">
-        <v>31</v>
+        <v>49</v>
       </c>
       <c r="H165" s="2" t="s">
-        <v>152</v>
+        <v>21</v>
       </c>
       <c r="I165" s="2" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="J165" s="2" t="s">
         <v>23</v>
@@ -9012,7 +9018,7 @@
         <v>24</v>
       </c>
       <c r="L165" s="3" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="M165" s="2" t="s">
         <v>25</v>
@@ -9026,31 +9032,31 @@
     </row>
     <row r="166" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A166" s="2" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="B166" s="2" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="C166" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="D166" s="3" t="n">
         <v>34</v>
       </c>
-      <c r="D166" s="3" t="n">
-        <v>70</v>
-      </c>
       <c r="E166" s="2" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="F166" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G166" s="2" t="s">
         <v>31</v>
       </c>
       <c r="H166" s="2" t="s">
-        <v>21</v>
+        <v>154</v>
       </c>
       <c r="I166" s="2" t="s">
-        <v>154</v>
+        <v>159</v>
       </c>
       <c r="J166" s="2" t="s">
         <v>23</v>
@@ -9059,7 +9065,7 @@
         <v>24</v>
       </c>
       <c r="L166" s="3" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="M166" s="2" t="s">
         <v>25</v>
@@ -9073,31 +9079,31 @@
     </row>
     <row r="167" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A167" s="2" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="B167" s="2" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="C167" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="D167" s="3" t="n">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="E167" s="2" t="s">
-        <v>18</v>
+        <v>52</v>
       </c>
       <c r="F167" s="2" t="s">
-        <v>20</v>
+        <v>35</v>
       </c>
       <c r="G167" s="2" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="H167" s="2" t="s">
-        <v>21</v>
+        <v>154</v>
       </c>
       <c r="I167" s="2" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="J167" s="2" t="s">
         <v>23</v>
@@ -9106,7 +9112,7 @@
         <v>24</v>
       </c>
       <c r="L167" s="3" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="M167" s="2" t="s">
         <v>25</v>
@@ -9120,31 +9126,31 @@
     </row>
     <row r="168" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A168" s="2" t="s">
-        <v>149</v>
+        <v>160</v>
       </c>
       <c r="B168" s="2" t="s">
-        <v>150</v>
+        <v>161</v>
       </c>
       <c r="C168" s="2" t="s">
-        <v>38</v>
+        <v>17</v>
       </c>
       <c r="D168" s="3" t="n">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="E168" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F168" s="2" t="s">
-        <v>156</v>
+        <v>19</v>
       </c>
       <c r="G168" s="2" t="s">
-        <v>49</v>
+        <v>20</v>
       </c>
       <c r="H168" s="2" t="s">
-        <v>21</v>
+        <v>154</v>
       </c>
       <c r="I168" s="2" t="s">
-        <v>155</v>
+        <v>162</v>
       </c>
       <c r="J168" s="2" t="s">
         <v>23</v>
@@ -9153,7 +9159,7 @@
         <v>24</v>
       </c>
       <c r="L168" s="3" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="M168" s="2" t="s">
         <v>25</v>
@@ -9167,16 +9173,16 @@
     </row>
     <row r="169" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A169" s="2" t="s">
-        <v>149</v>
+        <v>160</v>
       </c>
       <c r="B169" s="2" t="s">
-        <v>150</v>
+        <v>161</v>
       </c>
       <c r="C169" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D169" s="3" t="n">
         <v>40</v>
-      </c>
-      <c r="D169" s="3" t="n">
-        <v>34</v>
       </c>
       <c r="E169" s="2" t="s">
         <v>28</v>
@@ -9188,10 +9194,10 @@
         <v>31</v>
       </c>
       <c r="H169" s="2" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="I169" s="2" t="s">
-        <v>157</v>
+        <v>162</v>
       </c>
       <c r="J169" s="2" t="s">
         <v>23</v>
@@ -9214,31 +9220,31 @@
     </row>
     <row r="170" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A170" s="2" t="s">
-        <v>149</v>
+        <v>160</v>
       </c>
       <c r="B170" s="2" t="s">
-        <v>150</v>
+        <v>161</v>
       </c>
       <c r="C170" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D170" s="3" t="n">
         <v>40</v>
       </c>
-      <c r="D170" s="3" t="n">
-        <v>34</v>
-      </c>
       <c r="E170" s="2" t="s">
-        <v>52</v>
+        <v>30</v>
       </c>
       <c r="F170" s="2" t="s">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="G170" s="2" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="H170" s="2" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="I170" s="2" t="s">
-        <v>157</v>
+        <v>162</v>
       </c>
       <c r="J170" s="2" t="s">
         <v>23</v>
@@ -9247,7 +9253,7 @@
         <v>24</v>
       </c>
       <c r="L170" s="3" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="M170" s="2" t="s">
         <v>25</v>
@@ -9261,19 +9267,19 @@
     </row>
     <row r="171" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A171" s="2" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="B171" s="2" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="C171" s="2" t="s">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="D171" s="3" t="n">
         <v>40</v>
       </c>
       <c r="E171" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F171" s="2" t="s">
         <v>19</v>
@@ -9282,10 +9288,10 @@
         <v>20</v>
       </c>
       <c r="H171" s="2" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="I171" s="2" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="J171" s="2" t="s">
         <v>23</v>
@@ -9294,7 +9300,7 @@
         <v>24</v>
       </c>
       <c r="L171" s="3" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="M171" s="2" t="s">
         <v>25</v>
@@ -9308,31 +9314,31 @@
     </row>
     <row r="172" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A172" s="2" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="B172" s="2" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="C172" s="2" t="s">
-        <v>17</v>
+        <v>34</v>
       </c>
       <c r="D172" s="3" t="n">
-        <v>40</v>
+        <v>55</v>
       </c>
       <c r="E172" s="2" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="F172" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G172" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="G172" s="2" t="s">
-        <v>31</v>
-      </c>
       <c r="H172" s="2" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="I172" s="2" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="J172" s="2" t="s">
         <v>23</v>
@@ -9341,7 +9347,7 @@
         <v>24</v>
       </c>
       <c r="L172" s="3" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M172" s="2" t="s">
         <v>25</v>
@@ -9355,31 +9361,31 @@
     </row>
     <row r="173" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A173" s="2" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="B173" s="2" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="C173" s="2" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="D173" s="3" t="n">
-        <v>40</v>
+        <v>55</v>
       </c>
       <c r="E173" s="2" t="s">
-        <v>30</v>
+        <v>52</v>
       </c>
       <c r="F173" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G173" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="G173" s="2" t="s">
-        <v>31</v>
-      </c>
       <c r="H173" s="2" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="I173" s="2" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="J173" s="2" t="s">
         <v>23</v>
@@ -9388,7 +9394,7 @@
         <v>24</v>
       </c>
       <c r="L173" s="3" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="M173" s="2" t="s">
         <v>25</v>
@@ -9402,32 +9408,32 @@
     </row>
     <row r="174" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A174" s="2" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="B174" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="C174" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D174" s="3" t="n">
+        <v>100</v>
+      </c>
+      <c r="E174" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="F174" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="G174" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="H174" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="I174" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="C174" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="D174" s="3" t="n">
-        <v>40</v>
-      </c>
-      <c r="E174" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="F174" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="G174" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="H174" s="2" t="s">
-        <v>152</v>
-      </c>
-      <c r="I174" s="2" t="s">
-        <v>160</v>
-      </c>
       <c r="J174" s="2" t="s">
         <v>23</v>
       </c>
@@ -9435,7 +9441,7 @@
         <v>24</v>
       </c>
       <c r="L174" s="3" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="M174" s="2" t="s">
         <v>25</v>
@@ -9449,32 +9455,32 @@
     </row>
     <row r="175" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A175" s="2" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="B175" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="C175" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D175" s="3" t="n">
+        <v>100</v>
+      </c>
+      <c r="E175" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="F175" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="G175" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="H175" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="I175" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="C175" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="D175" s="3" t="n">
-        <v>55</v>
-      </c>
-      <c r="E175" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="F175" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="G175" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="H175" s="2" t="s">
-        <v>152</v>
-      </c>
-      <c r="I175" s="2" t="s">
-        <v>153</v>
-      </c>
       <c r="J175" s="2" t="s">
         <v>23</v>
       </c>
@@ -9482,7 +9488,7 @@
         <v>24</v>
       </c>
       <c r="L175" s="3" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="M175" s="2" t="s">
         <v>25</v>
@@ -9496,31 +9502,31 @@
     </row>
     <row r="176" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A176" s="2" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="B176" s="2" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="C176" s="2" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="D176" s="3" t="n">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="E176" s="2" t="s">
-        <v>52</v>
+        <v>30</v>
       </c>
       <c r="F176" s="2" t="s">
-        <v>19</v>
+        <v>49</v>
       </c>
       <c r="G176" s="2" t="s">
-        <v>20</v>
+        <v>46</v>
       </c>
       <c r="H176" s="2" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="I176" s="2" t="s">
-        <v>153</v>
+        <v>162</v>
       </c>
       <c r="J176" s="2" t="s">
         <v>23</v>
@@ -9529,7 +9535,7 @@
         <v>24</v>
       </c>
       <c r="L176" s="3" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="M176" s="2" t="s">
         <v>25</v>
@@ -9543,31 +9549,31 @@
     </row>
     <row r="177" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A177" s="2" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="B177" s="2" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="C177" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="D177" s="3" t="n">
-        <v>100</v>
+        <v>45</v>
       </c>
       <c r="E177" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F177" s="2" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="G177" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H177" s="2" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="I177" s="2" t="s">
-        <v>157</v>
+        <v>162</v>
       </c>
       <c r="J177" s="2" t="s">
         <v>23</v>
@@ -9576,7 +9582,7 @@
         <v>24</v>
       </c>
       <c r="L177" s="3" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="M177" s="2" t="s">
         <v>25</v>
@@ -9590,19 +9596,19 @@
     </row>
     <row r="178" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A178" s="2" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="B178" s="2" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="C178" s="2" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="D178" s="3" t="n">
-        <v>100</v>
+        <v>45</v>
       </c>
       <c r="E178" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F178" s="2" t="s">
         <v>46</v>
@@ -9611,10 +9617,10 @@
         <v>47</v>
       </c>
       <c r="H178" s="2" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="I178" s="2" t="s">
-        <v>157</v>
+        <v>162</v>
       </c>
       <c r="J178" s="2" t="s">
         <v>23</v>
@@ -9623,7 +9629,7 @@
         <v>24</v>
       </c>
       <c r="L178" s="3" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="M178" s="2" t="s">
         <v>25</v>
@@ -9637,19 +9643,19 @@
     </row>
     <row r="179" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A179" s="2" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="B179" s="2" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="C179" s="2" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="D179" s="3" t="n">
         <v>45</v>
       </c>
       <c r="E179" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F179" s="2" t="s">
         <v>49</v>
@@ -9658,10 +9664,10 @@
         <v>46</v>
       </c>
       <c r="H179" s="2" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="I179" s="2" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="J179" s="2" t="s">
         <v>23</v>
@@ -9670,7 +9676,7 @@
         <v>24</v>
       </c>
       <c r="L179" s="3" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="M179" s="2" t="s">
         <v>25</v>
@@ -9684,31 +9690,31 @@
     </row>
     <row r="180" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A180" s="2" t="s">
-        <v>158</v>
+        <v>163</v>
       </c>
       <c r="B180" s="2" t="s">
-        <v>159</v>
+        <v>164</v>
       </c>
       <c r="C180" s="2" t="s">
-        <v>40</v>
+        <v>17</v>
       </c>
       <c r="D180" s="3" t="n">
-        <v>45</v>
+        <v>70</v>
       </c>
       <c r="E180" s="2" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="F180" s="2" t="s">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="G180" s="2" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="H180" s="2" t="s">
-        <v>152</v>
+        <v>21</v>
       </c>
       <c r="I180" s="2" t="s">
-        <v>160</v>
+        <v>153</v>
       </c>
       <c r="J180" s="2" t="s">
         <v>23</v>
@@ -9717,7 +9723,7 @@
         <v>24</v>
       </c>
       <c r="L180" s="3" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M180" s="2" t="s">
         <v>25</v>
@@ -9731,31 +9737,31 @@
     </row>
     <row r="181" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A181" s="2" t="s">
-        <v>158</v>
+        <v>163</v>
       </c>
       <c r="B181" s="2" t="s">
-        <v>159</v>
+        <v>164</v>
       </c>
       <c r="C181" s="2" t="s">
-        <v>45</v>
+        <v>17</v>
       </c>
       <c r="D181" s="3" t="n">
-        <v>45</v>
+        <v>70</v>
       </c>
       <c r="E181" s="2" t="s">
-        <v>30</v>
+        <v>52</v>
       </c>
       <c r="F181" s="2" t="s">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="G181" s="2" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="H181" s="2" t="s">
-        <v>152</v>
+        <v>21</v>
       </c>
       <c r="I181" s="2" t="s">
-        <v>160</v>
+        <v>153</v>
       </c>
       <c r="J181" s="2" t="s">
         <v>23</v>
@@ -9764,7 +9770,7 @@
         <v>24</v>
       </c>
       <c r="L181" s="3" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="M181" s="2" t="s">
         <v>25</v>
@@ -9778,31 +9784,31 @@
     </row>
     <row r="182" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A182" s="2" t="s">
-        <v>158</v>
+        <v>165</v>
       </c>
       <c r="B182" s="2" t="s">
-        <v>159</v>
+        <v>166</v>
       </c>
       <c r="C182" s="2" t="s">
-        <v>45</v>
+        <v>17</v>
       </c>
       <c r="D182" s="3" t="n">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="E182" s="2" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="F182" s="2" t="s">
-        <v>49</v>
+        <v>19</v>
       </c>
       <c r="G182" s="2" t="s">
-        <v>46</v>
+        <v>20</v>
       </c>
       <c r="H182" s="2" t="s">
-        <v>152</v>
+        <v>21</v>
       </c>
       <c r="I182" s="2" t="s">
-        <v>160</v>
+        <v>153</v>
       </c>
       <c r="J182" s="2" t="s">
         <v>23</v>
@@ -9811,7 +9817,7 @@
         <v>24</v>
       </c>
       <c r="L182" s="3" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="M182" s="2" t="s">
         <v>25</v>
@@ -9825,31 +9831,31 @@
     </row>
     <row r="183" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A183" s="2" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="B183" s="2" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="C183" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D183" s="3" t="n">
-        <v>70</v>
+        <v>42</v>
       </c>
       <c r="E183" s="2" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="F183" s="2" t="s">
-        <v>55</v>
+        <v>19</v>
       </c>
       <c r="G183" s="2" t="s">
-        <v>41</v>
+        <v>20</v>
       </c>
       <c r="H183" s="2" t="s">
         <v>21</v>
       </c>
       <c r="I183" s="2" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="J183" s="2" t="s">
         <v>23</v>
@@ -9858,7 +9864,7 @@
         <v>24</v>
       </c>
       <c r="L183" s="3" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="M183" s="2" t="s">
         <v>25</v>
@@ -9872,31 +9878,31 @@
     </row>
     <row r="184" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A184" s="2" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="B184" s="2" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="C184" s="2" t="s">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="D184" s="3" t="n">
-        <v>70</v>
+        <v>45</v>
       </c>
       <c r="E184" s="2" t="s">
-        <v>52</v>
+        <v>18</v>
       </c>
       <c r="F184" s="2" t="s">
-        <v>55</v>
+        <v>19</v>
       </c>
       <c r="G184" s="2" t="s">
-        <v>41</v>
+        <v>20</v>
       </c>
       <c r="H184" s="2" t="s">
         <v>21</v>
       </c>
       <c r="I184" s="2" t="s">
-        <v>151</v>
+        <v>157</v>
       </c>
       <c r="J184" s="2" t="s">
         <v>23</v>
@@ -9905,7 +9911,7 @@
         <v>24</v>
       </c>
       <c r="L184" s="3" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="M184" s="2" t="s">
         <v>25</v>
@@ -9919,31 +9925,31 @@
     </row>
     <row r="185" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A185" s="2" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="B185" s="2" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="C185" s="2" t="s">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="D185" s="3" t="n">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="E185" s="2" t="s">
-        <v>18</v>
+        <v>52</v>
       </c>
       <c r="F185" s="2" t="s">
-        <v>19</v>
+        <v>35</v>
       </c>
       <c r="G185" s="2" t="s">
-        <v>20</v>
+        <v>36</v>
       </c>
       <c r="H185" s="2" t="s">
         <v>21</v>
       </c>
       <c r="I185" s="2" t="s">
-        <v>151</v>
+        <v>157</v>
       </c>
       <c r="J185" s="2" t="s">
         <v>23</v>
@@ -9952,7 +9958,7 @@
         <v>24</v>
       </c>
       <c r="L185" s="3" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="M185" s="2" t="s">
         <v>25</v>
@@ -9966,19 +9972,19 @@
     </row>
     <row r="186" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A186" s="2" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="B186" s="2" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="C186" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D186" s="3" t="n">
-        <v>42</v>
+        <v>60</v>
       </c>
       <c r="E186" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F186" s="2" t="s">
         <v>19</v>
@@ -9987,10 +9993,10 @@
         <v>20</v>
       </c>
       <c r="H186" s="2" t="s">
-        <v>21</v>
+        <v>154</v>
       </c>
       <c r="I186" s="2" t="s">
-        <v>151</v>
+        <v>169</v>
       </c>
       <c r="J186" s="2" t="s">
         <v>23</v>
@@ -9999,7 +10005,7 @@
         <v>24</v>
       </c>
       <c r="L186" s="3" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="M186" s="2" t="s">
         <v>25</v>
@@ -10013,19 +10019,19 @@
     </row>
     <row r="187" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A187" s="2" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="B187" s="2" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="C187" s="2" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="D187" s="3" t="n">
-        <v>45</v>
+        <v>60</v>
       </c>
       <c r="E187" s="2" t="s">
-        <v>18</v>
+        <v>33</v>
       </c>
       <c r="F187" s="2" t="s">
         <v>19</v>
@@ -10034,10 +10040,10 @@
         <v>20</v>
       </c>
       <c r="H187" s="2" t="s">
-        <v>21</v>
+        <v>154</v>
       </c>
       <c r="I187" s="2" t="s">
-        <v>155</v>
+        <v>169</v>
       </c>
       <c r="J187" s="2" t="s">
         <v>23</v>
@@ -10046,7 +10052,7 @@
         <v>24</v>
       </c>
       <c r="L187" s="3" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M187" s="2" t="s">
         <v>25</v>
@@ -10060,31 +10066,31 @@
     </row>
     <row r="188" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A188" s="2" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="B188" s="2" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="C188" s="2" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="D188" s="3" t="n">
-        <v>45</v>
+        <v>60</v>
       </c>
       <c r="E188" s="2" t="s">
         <v>52</v>
       </c>
       <c r="F188" s="2" t="s">
-        <v>35</v>
+        <v>19</v>
       </c>
       <c r="G188" s="2" t="s">
-        <v>36</v>
+        <v>20</v>
       </c>
       <c r="H188" s="2" t="s">
-        <v>21</v>
+        <v>154</v>
       </c>
       <c r="I188" s="2" t="s">
-        <v>155</v>
+        <v>169</v>
       </c>
       <c r="J188" s="2" t="s">
         <v>23</v>
@@ -10107,13 +10113,13 @@
     </row>
     <row r="189" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A189" s="2" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="B189" s="2" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="C189" s="2" t="s">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="D189" s="3" t="n">
         <v>60</v>
@@ -10128,16 +10134,16 @@
         <v>20</v>
       </c>
       <c r="H189" s="2" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="I189" s="2" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="J189" s="2" t="s">
         <v>23</v>
       </c>
       <c r="K189" s="2" t="s">
-        <v>24</v>
+        <v>67</v>
       </c>
       <c r="L189" s="3" t="n">
         <v>2</v>
@@ -10154,13 +10160,13 @@
     </row>
     <row r="190" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A190" s="2" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="B190" s="2" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="C190" s="2" t="s">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="D190" s="3" t="n">
         <v>60</v>
@@ -10175,16 +10181,16 @@
         <v>20</v>
       </c>
       <c r="H190" s="2" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="I190" s="2" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="J190" s="2" t="s">
         <v>23</v>
       </c>
       <c r="K190" s="2" t="s">
-        <v>24</v>
+        <v>67</v>
       </c>
       <c r="L190" s="3" t="n">
         <v>4</v>
@@ -10201,13 +10207,13 @@
     </row>
     <row r="191" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A191" s="2" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="B191" s="2" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="C191" s="2" t="s">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="D191" s="3" t="n">
         <v>60</v>
@@ -10222,16 +10228,16 @@
         <v>20</v>
       </c>
       <c r="H191" s="2" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="I191" s="2" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="J191" s="2" t="s">
         <v>23</v>
       </c>
       <c r="K191" s="2" t="s">
-        <v>24</v>
+        <v>67</v>
       </c>
       <c r="L191" s="3" t="n">
         <v>6</v>
@@ -10248,13 +10254,13 @@
     </row>
     <row r="192" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A192" s="2" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="B192" s="2" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="C192" s="2" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="D192" s="3" t="n">
         <v>60</v>
@@ -10263,22 +10269,22 @@
         <v>30</v>
       </c>
       <c r="F192" s="2" t="s">
-        <v>19</v>
+        <v>49</v>
       </c>
       <c r="G192" s="2" t="s">
-        <v>20</v>
+        <v>46</v>
       </c>
       <c r="H192" s="2" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="I192" s="2" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="J192" s="2" t="s">
         <v>23</v>
       </c>
       <c r="K192" s="2" t="s">
-        <v>67</v>
+        <v>24</v>
       </c>
       <c r="L192" s="3" t="n">
         <v>2</v>
@@ -10295,13 +10301,13 @@
     </row>
     <row r="193" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A193" s="2" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="B193" s="2" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="C193" s="2" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="D193" s="3" t="n">
         <v>60</v>
@@ -10310,22 +10316,22 @@
         <v>33</v>
       </c>
       <c r="F193" s="2" t="s">
-        <v>19</v>
+        <v>42</v>
       </c>
       <c r="G193" s="2" t="s">
-        <v>20</v>
+        <v>44</v>
       </c>
       <c r="H193" s="2" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="I193" s="2" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="J193" s="2" t="s">
         <v>23</v>
       </c>
       <c r="K193" s="2" t="s">
-        <v>67</v>
+        <v>24</v>
       </c>
       <c r="L193" s="3" t="n">
         <v>4</v>
@@ -10342,13 +10348,13 @@
     </row>
     <row r="194" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A194" s="2" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="B194" s="2" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="C194" s="2" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="D194" s="3" t="n">
         <v>60</v>
@@ -10357,22 +10363,22 @@
         <v>52</v>
       </c>
       <c r="F194" s="2" t="s">
-        <v>19</v>
+        <v>49</v>
       </c>
       <c r="G194" s="2" t="s">
-        <v>20</v>
+        <v>46</v>
       </c>
       <c r="H194" s="2" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="I194" s="2" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="J194" s="2" t="s">
         <v>23</v>
       </c>
       <c r="K194" s="2" t="s">
-        <v>67</v>
+        <v>24</v>
       </c>
       <c r="L194" s="3" t="n">
         <v>6</v>
@@ -10389,28 +10395,28 @@
     </row>
     <row r="195" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A195" s="2" t="s">
-        <v>165</v>
+        <v>172</v>
       </c>
       <c r="B195" s="2" t="s">
-        <v>166</v>
+        <v>85</v>
       </c>
       <c r="C195" s="2" t="s">
-        <v>34</v>
+        <v>17</v>
       </c>
       <c r="D195" s="3" t="n">
         <v>60</v>
       </c>
       <c r="E195" s="2" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="F195" s="2" t="s">
-        <v>49</v>
+        <v>19</v>
       </c>
       <c r="G195" s="2" t="s">
-        <v>46</v>
+        <v>20</v>
       </c>
       <c r="H195" s="2" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="I195" s="2" t="s">
         <v>169</v>
@@ -10422,7 +10428,7 @@
         <v>24</v>
       </c>
       <c r="L195" s="3" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M195" s="2" t="s">
         <v>25</v>
@@ -10436,28 +10442,28 @@
     </row>
     <row r="196" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A196" s="2" t="s">
-        <v>165</v>
+        <v>172</v>
       </c>
       <c r="B196" s="2" t="s">
-        <v>166</v>
+        <v>85</v>
       </c>
       <c r="C196" s="2" t="s">
-        <v>34</v>
+        <v>17</v>
       </c>
       <c r="D196" s="3" t="n">
         <v>60</v>
       </c>
       <c r="E196" s="2" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="F196" s="2" t="s">
-        <v>42</v>
+        <v>19</v>
       </c>
       <c r="G196" s="2" t="s">
-        <v>44</v>
+        <v>20</v>
       </c>
       <c r="H196" s="2" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="I196" s="2" t="s">
         <v>169</v>
@@ -10469,7 +10475,7 @@
         <v>24</v>
       </c>
       <c r="L196" s="3" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="M196" s="2" t="s">
         <v>25</v>
@@ -10483,40 +10489,40 @@
     </row>
     <row r="197" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A197" s="2" t="s">
-        <v>165</v>
+        <v>172</v>
       </c>
       <c r="B197" s="2" t="s">
-        <v>166</v>
+        <v>85</v>
       </c>
       <c r="C197" s="2" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="D197" s="3" t="n">
         <v>60</v>
       </c>
       <c r="E197" s="2" t="s">
-        <v>52</v>
+        <v>18</v>
       </c>
       <c r="F197" s="2" t="s">
-        <v>49</v>
+        <v>19</v>
       </c>
       <c r="G197" s="2" t="s">
-        <v>46</v>
+        <v>20</v>
       </c>
       <c r="H197" s="2" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="I197" s="2" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="J197" s="2" t="s">
         <v>23</v>
       </c>
       <c r="K197" s="2" t="s">
-        <v>24</v>
+        <v>67</v>
       </c>
       <c r="L197" s="3" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="M197" s="2" t="s">
         <v>25</v>
@@ -10530,19 +10536,19 @@
     </row>
     <row r="198" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A198" s="2" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="B198" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C198" s="2" t="s">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="D198" s="3" t="n">
         <v>60</v>
       </c>
       <c r="E198" s="2" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="F198" s="2" t="s">
         <v>19</v>
@@ -10551,19 +10557,19 @@
         <v>20</v>
       </c>
       <c r="H198" s="2" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="I198" s="2" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="J198" s="2" t="s">
         <v>23</v>
       </c>
       <c r="K198" s="2" t="s">
-        <v>24</v>
+        <v>67</v>
       </c>
       <c r="L198" s="3" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="M198" s="2" t="s">
         <v>25</v>
@@ -10577,31 +10583,31 @@
     </row>
     <row r="199" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A199" s="2" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="B199" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C199" s="2" t="s">
-        <v>17</v>
+        <v>34</v>
       </c>
       <c r="D199" s="3" t="n">
         <v>60</v>
       </c>
       <c r="E199" s="2" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="F199" s="2" t="s">
-        <v>19</v>
+        <v>42</v>
       </c>
       <c r="G199" s="2" t="s">
-        <v>20</v>
+        <v>44</v>
       </c>
       <c r="H199" s="2" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="I199" s="2" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="J199" s="2" t="s">
         <v>23</v>
@@ -10610,7 +10616,7 @@
         <v>24</v>
       </c>
       <c r="L199" s="3" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="M199" s="2" t="s">
         <v>25</v>
@@ -10624,40 +10630,40 @@
     </row>
     <row r="200" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A200" s="2" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="B200" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C200" s="2" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="D200" s="3" t="n">
         <v>60</v>
       </c>
       <c r="E200" s="2" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="F200" s="2" t="s">
-        <v>19</v>
+        <v>49</v>
       </c>
       <c r="G200" s="2" t="s">
-        <v>20</v>
+        <v>46</v>
       </c>
       <c r="H200" s="2" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="I200" s="2" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="J200" s="2" t="s">
         <v>23</v>
       </c>
       <c r="K200" s="2" t="s">
-        <v>67</v>
+        <v>24</v>
       </c>
       <c r="L200" s="3" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="M200" s="2" t="s">
         <v>25</v>
@@ -10671,40 +10677,40 @@
     </row>
     <row r="201" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A201" s="2" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="B201" s="2" t="s">
-        <v>84</v>
+        <v>174</v>
       </c>
       <c r="C201" s="2" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="D201" s="3" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="E201" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F201" s="2" t="s">
-        <v>19</v>
+        <v>35</v>
       </c>
       <c r="G201" s="2" t="s">
-        <v>20</v>
+        <v>36</v>
       </c>
       <c r="H201" s="2" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="I201" s="2" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="J201" s="2" t="s">
         <v>23</v>
       </c>
       <c r="K201" s="2" t="s">
-        <v>67</v>
+        <v>24</v>
       </c>
       <c r="L201" s="3" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="M201" s="2" t="s">
         <v>25</v>
@@ -10718,28 +10724,28 @@
     </row>
     <row r="202" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A202" s="2" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="B202" s="2" t="s">
-        <v>84</v>
+        <v>174</v>
       </c>
       <c r="C202" s="2" t="s">
-        <v>34</v>
+        <v>17</v>
       </c>
       <c r="D202" s="3" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="E202" s="2" t="s">
-        <v>18</v>
+        <v>33</v>
       </c>
       <c r="F202" s="2" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="G202" s="2" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="H202" s="2" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="I202" s="2" t="s">
         <v>169</v>
@@ -10751,7 +10757,7 @@
         <v>24</v>
       </c>
       <c r="L202" s="3" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M202" s="2" t="s">
         <v>25</v>
@@ -10765,28 +10771,28 @@
     </row>
     <row r="203" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A203" s="2" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="B203" s="2" t="s">
-        <v>84</v>
+        <v>174</v>
       </c>
       <c r="C203" s="2" t="s">
-        <v>34</v>
+        <v>17</v>
       </c>
       <c r="D203" s="3" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="E203" s="2" t="s">
-        <v>28</v>
+        <v>52</v>
       </c>
       <c r="F203" s="2" t="s">
-        <v>49</v>
+        <v>35</v>
       </c>
       <c r="G203" s="2" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="H203" s="2" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="I203" s="2" t="s">
         <v>169</v>
@@ -10798,7 +10804,7 @@
         <v>24</v>
       </c>
       <c r="L203" s="3" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="M203" s="2" t="s">
         <v>25</v>
@@ -10812,32 +10818,32 @@
     </row>
     <row r="204" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A204" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="B204" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="C204" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D204" s="3" t="n">
+        <v>60</v>
+      </c>
+      <c r="E204" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F204" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="G204" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="H204" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="I204" s="2" t="s">
         <v>171</v>
       </c>
-      <c r="B204" s="2" t="s">
-        <v>172</v>
-      </c>
-      <c r="C204" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D204" s="3" t="n">
-        <v>65</v>
-      </c>
-      <c r="E204" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="F204" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="G204" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="H204" s="2" t="s">
-        <v>152</v>
-      </c>
-      <c r="I204" s="2" t="s">
-        <v>167</v>
-      </c>
       <c r="J204" s="2" t="s">
         <v>23</v>
       </c>
@@ -10845,7 +10851,7 @@
         <v>24</v>
       </c>
       <c r="L204" s="3" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M204" s="2" t="s">
         <v>25</v>
@@ -10859,32 +10865,32 @@
     </row>
     <row r="205" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A205" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="B205" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="C205" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D205" s="3" t="n">
+        <v>60</v>
+      </c>
+      <c r="E205" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="F205" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="G205" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="H205" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="I205" s="2" t="s">
         <v>171</v>
       </c>
-      <c r="B205" s="2" t="s">
-        <v>172</v>
-      </c>
-      <c r="C205" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D205" s="3" t="n">
-        <v>65</v>
-      </c>
-      <c r="E205" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="F205" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="G205" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="H205" s="2" t="s">
-        <v>152</v>
-      </c>
-      <c r="I205" s="2" t="s">
-        <v>167</v>
-      </c>
       <c r="J205" s="2" t="s">
         <v>23</v>
       </c>
@@ -10892,7 +10898,7 @@
         <v>24</v>
       </c>
       <c r="L205" s="3" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="M205" s="2" t="s">
         <v>25</v>
@@ -10906,31 +10912,31 @@
     </row>
     <row r="206" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A206" s="2" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="B206" s="2" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="C206" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D206" s="3" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="E206" s="2" t="s">
-        <v>52</v>
+        <v>30</v>
       </c>
       <c r="F206" s="2" t="s">
-        <v>35</v>
+        <v>19</v>
       </c>
       <c r="G206" s="2" t="s">
-        <v>36</v>
+        <v>20</v>
       </c>
       <c r="H206" s="2" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="I206" s="2" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="J206" s="2" t="s">
         <v>23</v>
@@ -10939,7 +10945,7 @@
         <v>24</v>
       </c>
       <c r="L206" s="3" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="M206" s="2" t="s">
         <v>25</v>
@@ -10953,31 +10959,31 @@
     </row>
     <row r="207" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A207" s="2" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="B207" s="2" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="C207" s="2" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="D207" s="3" t="n">
         <v>60</v>
       </c>
       <c r="E207" s="2" t="s">
-        <v>18</v>
+        <v>33</v>
       </c>
       <c r="F207" s="2" t="s">
-        <v>49</v>
+        <v>19</v>
       </c>
       <c r="G207" s="2" t="s">
-        <v>42</v>
+        <v>20</v>
       </c>
       <c r="H207" s="2" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="I207" s="2" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="J207" s="2" t="s">
         <v>23</v>
@@ -10986,7 +10992,7 @@
         <v>24</v>
       </c>
       <c r="L207" s="3" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M207" s="2" t="s">
         <v>25</v>
@@ -11000,31 +11006,31 @@
     </row>
     <row r="208" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A208" s="2" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="B208" s="2" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="C208" s="2" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="D208" s="3" t="n">
         <v>60</v>
       </c>
       <c r="E208" s="2" t="s">
-        <v>28</v>
+        <v>52</v>
       </c>
       <c r="F208" s="2" t="s">
-        <v>46</v>
+        <v>19</v>
       </c>
       <c r="G208" s="2" t="s">
-        <v>44</v>
+        <v>20</v>
       </c>
       <c r="H208" s="2" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="I208" s="2" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="J208" s="2" t="s">
         <v>23</v>
@@ -11033,7 +11039,7 @@
         <v>24</v>
       </c>
       <c r="L208" s="3" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="M208" s="2" t="s">
         <v>25</v>
@@ -11047,31 +11053,31 @@
     </row>
     <row r="209" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A209" s="2" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="B209" s="2" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="C209" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D209" s="3" t="n">
-        <v>60</v>
+        <v>90</v>
       </c>
       <c r="E209" s="2" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="F209" s="2" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="G209" s="2" t="s">
-        <v>20</v>
+        <v>55</v>
       </c>
       <c r="H209" s="2" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="I209" s="2" t="s">
-        <v>168</v>
+        <v>56</v>
       </c>
       <c r="J209" s="2" t="s">
         <v>23</v>
@@ -11080,7 +11086,7 @@
         <v>24</v>
       </c>
       <c r="L209" s="3" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M209" s="2" t="s">
         <v>25</v>
@@ -11094,31 +11100,31 @@
     </row>
     <row r="210" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A210" s="2" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="B210" s="2" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="C210" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D210" s="3" t="n">
-        <v>60</v>
+        <v>90</v>
       </c>
       <c r="E210" s="2" t="s">
-        <v>33</v>
+        <v>52</v>
       </c>
       <c r="F210" s="2" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="G210" s="2" t="s">
-        <v>20</v>
+        <v>55</v>
       </c>
       <c r="H210" s="2" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="I210" s="2" t="s">
-        <v>168</v>
+        <v>56</v>
       </c>
       <c r="J210" s="2" t="s">
         <v>23</v>
@@ -11127,7 +11133,7 @@
         <v>24</v>
       </c>
       <c r="L210" s="3" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="M210" s="2" t="s">
         <v>25</v>
@@ -11141,31 +11147,31 @@
     </row>
     <row r="211" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A211" s="2" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="B211" s="2" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="C211" s="2" t="s">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="D211" s="3" t="n">
-        <v>60</v>
+        <v>90</v>
       </c>
       <c r="E211" s="2" t="s">
-        <v>52</v>
+        <v>33</v>
       </c>
       <c r="F211" s="2" t="s">
-        <v>19</v>
+        <v>42</v>
       </c>
       <c r="G211" s="2" t="s">
-        <v>20</v>
+        <v>44</v>
       </c>
       <c r="H211" s="2" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="I211" s="2" t="s">
-        <v>168</v>
+        <v>95</v>
       </c>
       <c r="J211" s="2" t="s">
         <v>23</v>
@@ -11174,7 +11180,7 @@
         <v>24</v>
       </c>
       <c r="L211" s="3" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="M211" s="2" t="s">
         <v>25</v>
@@ -11188,31 +11194,31 @@
     </row>
     <row r="212" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A212" s="2" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="B212" s="2" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="C212" s="2" t="s">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="D212" s="3" t="n">
         <v>90</v>
       </c>
       <c r="E212" s="2" t="s">
-        <v>33</v>
+        <v>52</v>
       </c>
       <c r="F212" s="2" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="G212" s="2" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="H212" s="2" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="I212" s="2" t="s">
-        <v>56</v>
+        <v>95</v>
       </c>
       <c r="J212" s="2" t="s">
         <v>23</v>
@@ -11221,7 +11227,7 @@
         <v>24</v>
       </c>
       <c r="L212" s="3" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="M212" s="2" t="s">
         <v>25</v>
@@ -11235,10 +11241,10 @@
     </row>
     <row r="213" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A213" s="2" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="B213" s="2" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="C213" s="2" t="s">
         <v>17</v>
@@ -11247,16 +11253,16 @@
         <v>90</v>
       </c>
       <c r="E213" s="2" t="s">
-        <v>52</v>
+        <v>30</v>
       </c>
       <c r="F213" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="G213" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="G213" s="2" t="s">
-        <v>55</v>
-      </c>
       <c r="H213" s="2" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="I213" s="2" t="s">
         <v>56</v>
@@ -11268,7 +11274,7 @@
         <v>24</v>
       </c>
       <c r="L213" s="3" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="M213" s="2" t="s">
         <v>25</v>
@@ -11282,13 +11288,13 @@
     </row>
     <row r="214" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A214" s="2" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="B214" s="2" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="C214" s="2" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="D214" s="3" t="n">
         <v>90</v>
@@ -11297,16 +11303,16 @@
         <v>33</v>
       </c>
       <c r="F214" s="2" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="G214" s="2" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="H214" s="2" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="I214" s="2" t="s">
-        <v>94</v>
+        <v>56</v>
       </c>
       <c r="J214" s="2" t="s">
         <v>23</v>
@@ -11329,13 +11335,13 @@
     </row>
     <row r="215" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A215" s="2" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="B215" s="2" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="C215" s="2" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="D215" s="3" t="n">
         <v>90</v>
@@ -11344,16 +11350,16 @@
         <v>52</v>
       </c>
       <c r="F215" s="2" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="G215" s="2" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="H215" s="2" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="I215" s="2" t="s">
-        <v>94</v>
+        <v>56</v>
       </c>
       <c r="J215" s="2" t="s">
         <v>23</v>
@@ -11376,13 +11382,13 @@
     </row>
     <row r="216" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A216" s="2" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="B216" s="2" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="C216" s="2" t="s">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="D216" s="3" t="n">
         <v>90</v>
@@ -11391,16 +11397,16 @@
         <v>30</v>
       </c>
       <c r="F216" s="2" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="G216" s="2" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="H216" s="2" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="I216" s="2" t="s">
-        <v>56</v>
+        <v>95</v>
       </c>
       <c r="J216" s="2" t="s">
         <v>23</v>
@@ -11423,13 +11429,13 @@
     </row>
     <row r="217" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A217" s="2" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="B217" s="2" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="C217" s="2" t="s">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="D217" s="3" t="n">
         <v>90</v>
@@ -11438,16 +11444,16 @@
         <v>33</v>
       </c>
       <c r="F217" s="2" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="G217" s="2" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="H217" s="2" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="I217" s="2" t="s">
-        <v>56</v>
+        <v>95</v>
       </c>
       <c r="J217" s="2" t="s">
         <v>23</v>
@@ -11470,13 +11476,13 @@
     </row>
     <row r="218" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A218" s="2" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="B218" s="2" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="C218" s="2" t="s">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="D218" s="3" t="n">
         <v>90</v>
@@ -11485,16 +11491,16 @@
         <v>52</v>
       </c>
       <c r="F218" s="2" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="G218" s="2" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="H218" s="2" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="I218" s="2" t="s">
-        <v>56</v>
+        <v>95</v>
       </c>
       <c r="J218" s="2" t="s">
         <v>23</v>
@@ -11517,13 +11523,13 @@
     </row>
     <row r="219" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A219" s="2" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="B219" s="2" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="C219" s="2" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="D219" s="3" t="n">
         <v>90</v>
@@ -11532,16 +11538,16 @@
         <v>30</v>
       </c>
       <c r="F219" s="2" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="G219" s="2" t="s">
-        <v>42</v>
+        <v>55</v>
       </c>
       <c r="H219" s="2" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="I219" s="2" t="s">
-        <v>94</v>
+        <v>56</v>
       </c>
       <c r="J219" s="2" t="s">
         <v>23</v>
@@ -11564,31 +11570,31 @@
     </row>
     <row r="220" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A220" s="2" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="B220" s="2" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="C220" s="2" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="D220" s="3" t="n">
         <v>90</v>
       </c>
       <c r="E220" s="2" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="F220" s="2" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="G220" s="2" t="s">
-        <v>42</v>
+        <v>55</v>
       </c>
       <c r="H220" s="2" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="I220" s="2" t="s">
-        <v>94</v>
+        <v>56</v>
       </c>
       <c r="J220" s="2" t="s">
         <v>23</v>
@@ -11597,7 +11603,7 @@
         <v>24</v>
       </c>
       <c r="L220" s="3" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="M220" s="2" t="s">
         <v>25</v>
@@ -11611,10 +11617,10 @@
     </row>
     <row r="221" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A221" s="2" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="B221" s="2" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="C221" s="2" t="s">
         <v>29</v>
@@ -11623,7 +11629,7 @@
         <v>90</v>
       </c>
       <c r="E221" s="2" t="s">
-        <v>52</v>
+        <v>30</v>
       </c>
       <c r="F221" s="2" t="s">
         <v>42</v>
@@ -11632,10 +11638,10 @@
         <v>44</v>
       </c>
       <c r="H221" s="2" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="I221" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="J221" s="2" t="s">
         <v>23</v>
@@ -11644,7 +11650,7 @@
         <v>24</v>
       </c>
       <c r="L221" s="3" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="M221" s="2" t="s">
         <v>25</v>
@@ -11658,31 +11664,31 @@
     </row>
     <row r="222" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A222" s="2" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="B222" s="2" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="C222" s="2" t="s">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="D222" s="3" t="n">
         <v>90</v>
       </c>
       <c r="E222" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F222" s="2" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="G222" s="2" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="H222" s="2" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="I222" s="2" t="s">
-        <v>56</v>
+        <v>95</v>
       </c>
       <c r="J222" s="2" t="s">
         <v>23</v>
@@ -11691,7 +11697,7 @@
         <v>24</v>
       </c>
       <c r="L222" s="3" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="M222" s="2" t="s">
         <v>25</v>
@@ -11705,10 +11711,10 @@
     </row>
     <row r="223" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A223" s="2" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="B223" s="2" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="C223" s="2" t="s">
         <v>17</v>
@@ -11717,16 +11723,16 @@
         <v>90</v>
       </c>
       <c r="E223" s="2" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="F223" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G223" s="2" t="s">
         <v>55</v>
       </c>
       <c r="H223" s="2" t="s">
-        <v>152</v>
+        <v>185</v>
       </c>
       <c r="I223" s="2" t="s">
         <v>56</v>
@@ -11738,7 +11744,7 @@
         <v>24</v>
       </c>
       <c r="L223" s="3" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="M223" s="2" t="s">
         <v>25</v>
@@ -11752,31 +11758,31 @@
     </row>
     <row r="224" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A224" s="2" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="B224" s="2" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="C224" s="2" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="D224" s="3" t="n">
         <v>90</v>
       </c>
       <c r="E224" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F224" s="2" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="G224" s="2" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="H224" s="2" t="s">
-        <v>152</v>
+        <v>185</v>
       </c>
       <c r="I224" s="2" t="s">
-        <v>94</v>
+        <v>56</v>
       </c>
       <c r="J224" s="2" t="s">
         <v>23</v>
@@ -11785,7 +11791,7 @@
         <v>24</v>
       </c>
       <c r="L224" s="3" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="M224" s="2" t="s">
         <v>25</v>
@@ -11799,10 +11805,10 @@
     </row>
     <row r="225" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A225" s="2" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="B225" s="2" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="C225" s="2" t="s">
         <v>29</v>
@@ -11811,19 +11817,19 @@
         <v>90</v>
       </c>
       <c r="E225" s="2" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="F225" s="2" t="s">
         <v>41</v>
       </c>
       <c r="G225" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="H225" s="2" t="s">
-        <v>152</v>
+        <v>185</v>
       </c>
       <c r="I225" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="J225" s="2" t="s">
         <v>23</v>
@@ -11832,7 +11838,7 @@
         <v>24</v>
       </c>
       <c r="L225" s="3" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="M225" s="2" t="s">
         <v>25</v>
@@ -11846,31 +11852,31 @@
     </row>
     <row r="226" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A226" s="2" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="B226" s="2" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="C226" s="2" t="s">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="D226" s="3" t="n">
         <v>90</v>
       </c>
       <c r="E226" s="2" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="F226" s="2" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="G226" s="2" t="s">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="H226" s="2" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="I226" s="2" t="s">
-        <v>56</v>
+        <v>95</v>
       </c>
       <c r="J226" s="2" t="s">
         <v>23</v>
@@ -11879,7 +11885,7 @@
         <v>24</v>
       </c>
       <c r="L226" s="3" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="M226" s="2" t="s">
         <v>25</v>
@@ -11892,152 +11898,68 @@
       </c>
     </row>
     <row r="227" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A227" s="2" t="s">
-        <v>181</v>
-      </c>
-      <c r="B227" s="2" t="s">
-        <v>182</v>
-      </c>
-      <c r="C227" s="2" t="s">
+      <c r="A227" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="B227" s="5" t="s">
+        <v>187</v>
+      </c>
+      <c r="C227" s="0" t="s">
         <v>17</v>
       </c>
-      <c r="D227" s="3" t="n">
-        <v>90</v>
-      </c>
-      <c r="E227" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="F227" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="G227" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="H227" s="2" t="s">
-        <v>183</v>
-      </c>
-      <c r="I227" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="J227" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="K227" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="L227" s="3" t="n">
-        <v>5</v>
-      </c>
-      <c r="M227" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="N227" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="O227" s="2" t="s">
-        <v>27</v>
+      <c r="D227" s="0" t="n">
+        <v>30</v>
+      </c>
+      <c r="F227" s="6"/>
+      <c r="G227" s="6"/>
+      <c r="I227" s="0" t="s">
+        <v>188</v>
       </c>
     </row>
     <row r="228" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A228" s="2" t="s">
-        <v>181</v>
-      </c>
-      <c r="B228" s="2" t="s">
-        <v>182</v>
-      </c>
-      <c r="C228" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="D228" s="3" t="n">
-        <v>90</v>
-      </c>
-      <c r="E228" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F228" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="G228" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="H228" s="2" t="s">
-        <v>183</v>
-      </c>
-      <c r="I228" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="J228" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="K228" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="L228" s="3" t="n">
-        <v>3</v>
-      </c>
-      <c r="M228" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="N228" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="O228" s="2" t="s">
-        <v>27</v>
+      <c r="A228" s="4" t="s">
+        <v>189</v>
+      </c>
+      <c r="B228" s="5" t="s">
+        <v>190</v>
+      </c>
+      <c r="C228" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="D228" s="0" t="n">
+        <v>30</v>
+      </c>
+      <c r="F228" s="6"/>
+      <c r="G228" s="6"/>
+      <c r="I228" s="0" t="s">
+        <v>188</v>
       </c>
     </row>
     <row r="229" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A229" s="2" t="s">
-        <v>181</v>
-      </c>
-      <c r="B229" s="2" t="s">
-        <v>182</v>
-      </c>
-      <c r="C229" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="D229" s="3" t="n">
-        <v>90</v>
-      </c>
-      <c r="E229" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="F229" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="G229" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="H229" s="2" t="s">
-        <v>183</v>
-      </c>
-      <c r="I229" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="J229" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="K229" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="L229" s="3" t="n">
-        <v>5</v>
-      </c>
-      <c r="M229" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="N229" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="O229" s="2" t="s">
-        <v>27</v>
+      <c r="A229" s="4" t="s">
+        <v>191</v>
+      </c>
+      <c r="B229" s="5" t="s">
+        <v>192</v>
+      </c>
+      <c r="C229" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="D229" s="0" t="n">
+        <v>30</v>
+      </c>
+      <c r="F229" s="6"/>
+      <c r="G229" s="6"/>
+      <c r="I229" s="0" t="s">
+        <v>188</v>
       </c>
     </row>
     <row r="230" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A230" s="4" t="s">
-        <v>184</v>
+        <v>193</v>
       </c>
       <c r="B230" s="5" t="s">
-        <v>185</v>
+        <v>194</v>
       </c>
       <c r="C230" s="0" t="s">
         <v>17</v>
@@ -12048,15 +11970,15 @@
       <c r="F230" s="6"/>
       <c r="G230" s="6"/>
       <c r="I230" s="0" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
     </row>
     <row r="231" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A231" s="4" t="s">
-        <v>187</v>
+        <v>195</v>
       </c>
       <c r="B231" s="5" t="s">
-        <v>188</v>
+        <v>196</v>
       </c>
       <c r="C231" s="0" t="s">
         <v>17</v>
@@ -12067,15 +11989,15 @@
       <c r="F231" s="6"/>
       <c r="G231" s="6"/>
       <c r="I231" s="0" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
     </row>
     <row r="232" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A232" s="4" t="s">
-        <v>189</v>
+        <v>197</v>
       </c>
       <c r="B232" s="5" t="s">
-        <v>190</v>
+        <v>198</v>
       </c>
       <c r="C232" s="0" t="s">
         <v>17</v>
@@ -12086,15 +12008,15 @@
       <c r="F232" s="6"/>
       <c r="G232" s="6"/>
       <c r="I232" s="0" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
     </row>
     <row r="233" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A233" s="4" t="s">
-        <v>191</v>
+        <v>199</v>
       </c>
       <c r="B233" s="5" t="s">
-        <v>192</v>
+        <v>200</v>
       </c>
       <c r="C233" s="0" t="s">
         <v>17</v>
@@ -12105,15 +12027,15 @@
       <c r="F233" s="6"/>
       <c r="G233" s="6"/>
       <c r="I233" s="0" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
     </row>
     <row r="234" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A234" s="4" t="s">
-        <v>193</v>
+        <v>201</v>
       </c>
       <c r="B234" s="5" t="s">
-        <v>194</v>
+        <v>202</v>
       </c>
       <c r="C234" s="0" t="s">
         <v>17</v>
@@ -12124,15 +12046,15 @@
       <c r="F234" s="6"/>
       <c r="G234" s="6"/>
       <c r="I234" s="0" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
     </row>
     <row r="235" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A235" s="4" t="s">
-        <v>195</v>
-      </c>
-      <c r="B235" s="5" t="s">
-        <v>196</v>
+      <c r="A235" s="7" t="s">
+        <v>203</v>
+      </c>
+      <c r="B235" s="8" t="s">
+        <v>204</v>
       </c>
       <c r="C235" s="0" t="s">
         <v>17</v>
@@ -12140,18 +12062,28 @@
       <c r="D235" s="0" t="n">
         <v>30</v>
       </c>
-      <c r="F235" s="6"/>
-      <c r="G235" s="6"/>
+      <c r="E235" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="F235" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="G235" s="2" t="s">
+        <v>36</v>
+      </c>
       <c r="I235" s="0" t="s">
-        <v>186</v>
+        <v>205</v>
+      </c>
+      <c r="L235" s="0" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="236" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A236" s="4" t="s">
-        <v>197</v>
-      </c>
-      <c r="B236" s="5" t="s">
-        <v>198</v>
+      <c r="A236" s="7" t="s">
+        <v>203</v>
+      </c>
+      <c r="B236" s="8" t="s">
+        <v>204</v>
       </c>
       <c r="C236" s="0" t="s">
         <v>17</v>
@@ -12159,18 +12091,28 @@
       <c r="D236" s="0" t="n">
         <v>30</v>
       </c>
-      <c r="F236" s="6"/>
-      <c r="G236" s="6"/>
+      <c r="E236" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="F236" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="G236" s="9" t="s">
+        <v>41</v>
+      </c>
       <c r="I236" s="0" t="s">
-        <v>186</v>
+        <v>205</v>
+      </c>
+      <c r="L236" s="0" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="237" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A237" s="4" t="s">
-        <v>199</v>
-      </c>
-      <c r="B237" s="5" t="s">
-        <v>200</v>
+      <c r="A237" s="10" t="s">
+        <v>206</v>
+      </c>
+      <c r="B237" s="11" t="s">
+        <v>207</v>
       </c>
       <c r="C237" s="0" t="s">
         <v>17</v>
@@ -12178,18 +12120,28 @@
       <c r="D237" s="0" t="n">
         <v>30</v>
       </c>
-      <c r="F237" s="6"/>
-      <c r="G237" s="6"/>
+      <c r="E237" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="F237" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="G237" s="9" t="s">
+        <v>42</v>
+      </c>
       <c r="I237" s="0" t="s">
-        <v>186</v>
+        <v>205</v>
+      </c>
+      <c r="L237" s="0" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="238" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A238" s="7" t="s">
-        <v>201</v>
-      </c>
-      <c r="B238" s="8" t="s">
-        <v>202</v>
+      <c r="A238" s="10" t="s">
+        <v>206</v>
+      </c>
+      <c r="B238" s="11" t="s">
+        <v>207</v>
       </c>
       <c r="C238" s="0" t="s">
         <v>17</v>
@@ -12198,27 +12150,27 @@
         <v>30</v>
       </c>
       <c r="E238" s="0" t="s">
-        <v>18</v>
-      </c>
-      <c r="F238" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="G238" s="2" t="s">
-        <v>36</v>
+        <v>28</v>
+      </c>
+      <c r="F238" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="G238" s="9" t="s">
+        <v>42</v>
       </c>
       <c r="I238" s="0" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="L238" s="0" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="239" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A239" s="7" t="s">
-        <v>201</v>
-      </c>
-      <c r="B239" s="8" t="s">
-        <v>202</v>
+      <c r="A239" s="12" t="s">
+        <v>208</v>
+      </c>
+      <c r="B239" s="13" t="s">
+        <v>184</v>
       </c>
       <c r="C239" s="0" t="s">
         <v>17</v>
@@ -12227,27 +12179,27 @@
         <v>30</v>
       </c>
       <c r="E239" s="0" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F239" s="9" t="s">
-        <v>55</v>
+        <v>209</v>
       </c>
       <c r="G239" s="9" t="s">
-        <v>41</v>
+        <v>210</v>
       </c>
       <c r="I239" s="0" t="s">
-        <v>203</v>
+        <v>211</v>
       </c>
       <c r="L239" s="0" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="240" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A240" s="10" t="s">
-        <v>204</v>
-      </c>
-      <c r="B240" s="11" t="s">
-        <v>205</v>
+      <c r="A240" s="12" t="s">
+        <v>208</v>
+      </c>
+      <c r="B240" s="13" t="s">
+        <v>184</v>
       </c>
       <c r="C240" s="0" t="s">
         <v>17</v>
@@ -12256,27 +12208,27 @@
         <v>30</v>
       </c>
       <c r="E240" s="0" t="s">
-        <v>18</v>
+        <v>52</v>
       </c>
       <c r="F240" s="9" t="s">
-        <v>41</v>
+        <v>209</v>
       </c>
       <c r="G240" s="9" t="s">
-        <v>42</v>
+        <v>210</v>
       </c>
       <c r="I240" s="0" t="s">
-        <v>203</v>
+        <v>211</v>
       </c>
       <c r="L240" s="0" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="241" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A241" s="10" t="s">
-        <v>204</v>
+      <c r="A241" s="14" t="s">
+        <v>212</v>
       </c>
       <c r="B241" s="11" t="s">
-        <v>205</v>
+        <v>213</v>
       </c>
       <c r="C241" s="0" t="s">
         <v>17</v>
@@ -12285,7 +12237,7 @@
         <v>30</v>
       </c>
       <c r="E241" s="0" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="F241" s="9" t="s">
         <v>41</v>
@@ -12294,18 +12246,18 @@
         <v>42</v>
       </c>
       <c r="I241" s="0" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="L241" s="0" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="242" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A242" s="12" t="s">
-        <v>206</v>
-      </c>
-      <c r="B242" s="13" t="s">
-        <v>182</v>
+      <c r="A242" s="14" t="s">
+        <v>212</v>
+      </c>
+      <c r="B242" s="11" t="s">
+        <v>213</v>
       </c>
       <c r="C242" s="0" t="s">
         <v>17</v>
@@ -12314,27 +12266,27 @@
         <v>30</v>
       </c>
       <c r="E242" s="0" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F242" s="9" t="s">
-        <v>207</v>
+        <v>41</v>
       </c>
       <c r="G242" s="9" t="s">
-        <v>208</v>
+        <v>42</v>
       </c>
       <c r="I242" s="0" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="L242" s="0" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="243" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A243" s="12" t="s">
-        <v>206</v>
-      </c>
-      <c r="B243" s="13" t="s">
-        <v>182</v>
+      <c r="A243" s="15" t="s">
+        <v>214</v>
+      </c>
+      <c r="B243" s="16" t="s">
+        <v>215</v>
       </c>
       <c r="C243" s="0" t="s">
         <v>17</v>
@@ -12343,27 +12295,27 @@
         <v>30</v>
       </c>
       <c r="E243" s="0" t="s">
-        <v>52</v>
+        <v>18</v>
       </c>
       <c r="F243" s="9" t="s">
-        <v>207</v>
+        <v>55</v>
       </c>
       <c r="G243" s="9" t="s">
-        <v>208</v>
+        <v>41</v>
       </c>
       <c r="I243" s="0" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="L243" s="0" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="244" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A244" s="14" t="s">
-        <v>210</v>
-      </c>
-      <c r="B244" s="11" t="s">
-        <v>211</v>
+      <c r="A244" s="15" t="s">
+        <v>214</v>
+      </c>
+      <c r="B244" s="16" t="s">
+        <v>215</v>
       </c>
       <c r="C244" s="0" t="s">
         <v>17</v>
@@ -12372,105 +12324,18 @@
         <v>30</v>
       </c>
       <c r="E244" s="0" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="F244" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="G244" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="G244" s="9" t="s">
-        <v>42</v>
-      </c>
       <c r="I244" s="0" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="L244" s="0" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="245" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A245" s="14" t="s">
-        <v>210</v>
-      </c>
-      <c r="B245" s="11" t="s">
-        <v>211</v>
-      </c>
-      <c r="C245" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="D245" s="0" t="n">
-        <v>30</v>
-      </c>
-      <c r="E245" s="0" t="s">
-        <v>28</v>
-      </c>
-      <c r="F245" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="G245" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="I245" s="0" t="s">
-        <v>203</v>
-      </c>
-      <c r="L245" s="0" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="246" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A246" s="15" t="s">
-        <v>212</v>
-      </c>
-      <c r="B246" s="16" t="s">
-        <v>213</v>
-      </c>
-      <c r="C246" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="D246" s="0" t="n">
-        <v>30</v>
-      </c>
-      <c r="E246" s="0" t="s">
-        <v>18</v>
-      </c>
-      <c r="F246" s="9" t="s">
-        <v>55</v>
-      </c>
-      <c r="G246" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="I246" s="0" t="s">
-        <v>203</v>
-      </c>
-      <c r="L246" s="0" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="247" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A247" s="15" t="s">
-        <v>212</v>
-      </c>
-      <c r="B247" s="16" t="s">
-        <v>213</v>
-      </c>
-      <c r="C247" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="D247" s="0" t="n">
-        <v>30</v>
-      </c>
-      <c r="E247" s="0" t="s">
-        <v>28</v>
-      </c>
-      <c r="F247" s="9" t="s">
-        <v>55</v>
-      </c>
-      <c r="G247" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="I247" s="0" t="s">
-        <v>203</v>
-      </c>
-      <c r="L247" s="0" t="n">
         <v>5</v>
       </c>
     </row>
